--- a/raw_data/20200818_saline/20200818_Sensor3_Test_37.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_37.xlsx
@@ -1,1474 +1,1890 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EAE6DE-A199-42B9-8A5C-B770954F2A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>32954.690864</v>
+        <v>32954.690863999997</v>
       </c>
       <c r="B2" s="1">
-        <v>9.154081</v>
+        <v>9.1540809999999997</v>
       </c>
       <c r="C2" s="1">
-        <v>1144.140000</v>
+        <v>1144.1400000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-242.015000</v>
+        <v>-242.01499999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>32964.772547</v>
       </c>
       <c r="G2" s="1">
-        <v>9.156881</v>
+        <v>9.1568810000000003</v>
       </c>
       <c r="H2" s="1">
-        <v>1165.360000</v>
+        <v>1165.3599999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-206.342000</v>
+        <v>-206.34200000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>32975.244086</v>
+        <v>32975.244085999999</v>
       </c>
       <c r="L2" s="1">
-        <v>9.159790</v>
+        <v>9.1597899999999992</v>
       </c>
       <c r="M2" s="1">
-        <v>1195.540000</v>
+        <v>1195.54</v>
       </c>
       <c r="N2" s="1">
-        <v>-147.566000</v>
+        <v>-147.566</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>32986.025127</v>
+        <v>32986.025127000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>9.162785</v>
+        <v>9.1627849999999995</v>
       </c>
       <c r="R2" s="1">
-        <v>1204.740000</v>
+        <v>1204.74</v>
       </c>
       <c r="S2" s="1">
-        <v>-127.234000</v>
+        <v>-127.23399999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>32996.546267</v>
+        <v>32996.546266999998</v>
       </c>
       <c r="V2" s="1">
-        <v>9.165707</v>
+        <v>9.1657069999999994</v>
       </c>
       <c r="W2" s="1">
-        <v>1213.510000</v>
+        <v>1213.51</v>
       </c>
       <c r="X2" s="1">
-        <v>-107.303000</v>
+        <v>-107.303</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>33006.970684</v>
       </c>
       <c r="AA2" s="1">
-        <v>9.168603</v>
+        <v>9.1686029999999992</v>
       </c>
       <c r="AB2" s="1">
-        <v>1222.120000</v>
+        <v>1222.1199999999999</v>
       </c>
       <c r="AC2" s="1">
-        <v>-90.727600</v>
+        <v>-90.727599999999995</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>33017.872253</v>
+        <v>33017.872253000001</v>
       </c>
       <c r="AF2" s="1">
-        <v>9.171631</v>
+        <v>9.1716309999999996</v>
       </c>
       <c r="AG2" s="1">
-        <v>1227.160000</v>
+        <v>1227.1600000000001</v>
       </c>
       <c r="AH2" s="1">
-        <v>-86.253600</v>
+        <v>-86.253600000000006</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>33028.622048</v>
+        <v>33028.622047999997</v>
       </c>
       <c r="AK2" s="1">
-        <v>9.174617</v>
+        <v>9.1746169999999996</v>
       </c>
       <c r="AL2" s="1">
-        <v>1234.510000</v>
+        <v>1234.51</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.554600</v>
+        <v>-89.554599999999994</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>33039.196290</v>
+        <v>33039.19629</v>
       </c>
       <c r="AP2" s="1">
-        <v>9.177555</v>
+        <v>9.1775549999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1242.490000</v>
+        <v>1242.49</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.460000</v>
+        <v>-101.46</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>33049.890005</v>
+        <v>33049.890005000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>9.180525</v>
+        <v>9.1805249999999994</v>
       </c>
       <c r="AV2" s="1">
-        <v>1252.440000</v>
+        <v>1252.44</v>
       </c>
       <c r="AW2" s="1">
-        <v>-120.794000</v>
+        <v>-120.794</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>33060.656164</v>
       </c>
       <c r="AZ2" s="1">
-        <v>9.183516</v>
+        <v>9.1835159999999991</v>
       </c>
       <c r="BA2" s="1">
-        <v>1260.800000</v>
+        <v>1260.8</v>
       </c>
       <c r="BB2" s="1">
-        <v>-138.302000</v>
+        <v>-138.30199999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>33071.263110</v>
+        <v>33071.26311</v>
       </c>
       <c r="BE2" s="1">
-        <v>9.186462</v>
+        <v>9.1864620000000006</v>
       </c>
       <c r="BF2" s="1">
-        <v>1300.480000</v>
+        <v>1300.48</v>
       </c>
       <c r="BG2" s="1">
-        <v>-220.699000</v>
+        <v>-220.69900000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>33082.320952</v>
+        <v>33082.320952000002</v>
       </c>
       <c r="BJ2" s="1">
-        <v>9.189534</v>
+        <v>9.1895340000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1369.460000</v>
+        <v>1369.46</v>
       </c>
       <c r="BL2" s="1">
-        <v>-358.457000</v>
+        <v>-358.45699999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>33092.991886</v>
+        <v>33092.991886000003</v>
       </c>
       <c r="BO2" s="1">
-        <v>9.192498</v>
+        <v>9.1924980000000005</v>
       </c>
       <c r="BP2" s="1">
-        <v>1482.860000</v>
+        <v>1482.86</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-583.803000</v>
+        <v>-583.803</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>33103.621116</v>
+        <v>33103.621116000002</v>
       </c>
       <c r="BT2" s="1">
-        <v>9.195450</v>
+        <v>9.1954499999999992</v>
       </c>
       <c r="BU2" s="1">
-        <v>1614.650000</v>
+        <v>1614.65</v>
       </c>
       <c r="BV2" s="1">
-        <v>-838.890000</v>
+        <v>-838.89</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>33113.985023</v>
+        <v>33113.985023000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>9.198329</v>
+        <v>9.1983289999999993</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1766.440000</v>
+        <v>1766.44</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1117.640000</v>
+        <v>-1117.6400000000001</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>33125.053743</v>
+        <v>33125.053742999997</v>
       </c>
       <c r="CD2" s="1">
-        <v>9.201404</v>
+        <v>9.2014040000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>2187.210000</v>
+        <v>2187.21</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1796.310000</v>
+        <v>-1796.31</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>32955.054965</v>
+        <v>32955.054965000003</v>
       </c>
       <c r="B3" s="1">
-        <v>9.154182</v>
+        <v>9.1541820000000005</v>
       </c>
       <c r="C3" s="1">
-        <v>1144.130000</v>
+        <v>1144.1300000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-242.230000</v>
+        <v>-242.23</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>32965.500211</v>
+        <v>32965.500210999999</v>
       </c>
       <c r="G3" s="1">
-        <v>9.157083</v>
+        <v>9.1570830000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1165.640000</v>
+        <v>1165.6400000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-206.661000</v>
+        <v>-206.661</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>32975.942452</v>
+        <v>32975.942452000003</v>
       </c>
       <c r="L3" s="1">
-        <v>9.159984</v>
+        <v>9.1599839999999997</v>
       </c>
       <c r="M3" s="1">
-        <v>1195.660000</v>
+        <v>1195.6600000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-147.740000</v>
+        <v>-147.74</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>32986.366872</v>
+        <v>32986.366871999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>9.162880</v>
+        <v>9.1628799999999995</v>
       </c>
       <c r="R3" s="1">
-        <v>1204.780000</v>
+        <v>1204.78</v>
       </c>
       <c r="S3" s="1">
-        <v>-127.221000</v>
+        <v>-127.221</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>32996.903881</v>
+        <v>32996.903880999998</v>
       </c>
       <c r="V3" s="1">
-        <v>9.165807</v>
+        <v>9.1658069999999991</v>
       </c>
       <c r="W3" s="1">
-        <v>1213.460000</v>
+        <v>1213.46</v>
       </c>
       <c r="X3" s="1">
-        <v>-107.240000</v>
+        <v>-107.24</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>33007.330779</v>
+        <v>33007.330779000004</v>
       </c>
       <c r="AA3" s="1">
-        <v>9.168703</v>
+        <v>9.1687030000000007</v>
       </c>
       <c r="AB3" s="1">
-        <v>1222.070000</v>
+        <v>1222.07</v>
       </c>
       <c r="AC3" s="1">
-        <v>-90.662000</v>
+        <v>-90.662000000000006</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>33018.555742</v>
+        <v>33018.555741999997</v>
       </c>
       <c r="AF3" s="1">
-        <v>9.171821</v>
+        <v>9.1718209999999996</v>
       </c>
       <c r="AG3" s="1">
-        <v>1227.160000</v>
+        <v>1227.1600000000001</v>
       </c>
       <c r="AH3" s="1">
-        <v>-86.262700</v>
+        <v>-86.262699999999995</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>33029.046158</v>
+        <v>33029.046157999997</v>
       </c>
       <c r="AK3" s="1">
-        <v>9.174735</v>
+        <v>9.1747350000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>1234.510000</v>
+        <v>1234.51</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.526500</v>
+        <v>-89.526499999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>33039.636704</v>
+        <v>33039.636703999997</v>
       </c>
       <c r="AP3" s="1">
-        <v>9.177677</v>
+        <v>9.1776769999999992</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1242.560000</v>
+        <v>1242.56</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.422000</v>
+        <v>-101.422</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>33050.258035</v>
+        <v>33050.258034999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>9.180627</v>
+        <v>9.1806269999999994</v>
       </c>
       <c r="AV3" s="1">
-        <v>1252.430000</v>
+        <v>1252.43</v>
       </c>
       <c r="AW3" s="1">
-        <v>-120.796000</v>
+        <v>-120.79600000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>33061.036100</v>
+        <v>33061.036099999998</v>
       </c>
       <c r="AZ3" s="1">
-        <v>9.183621</v>
+        <v>9.1836210000000005</v>
       </c>
       <c r="BA3" s="1">
-        <v>1260.810000</v>
+        <v>1260.81</v>
       </c>
       <c r="BB3" s="1">
-        <v>-138.286000</v>
+        <v>-138.286</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>33071.652627</v>
+        <v>33071.652627000003</v>
       </c>
       <c r="BE3" s="1">
-        <v>9.186570</v>
+        <v>9.1865699999999997</v>
       </c>
       <c r="BF3" s="1">
-        <v>1300.500000</v>
+        <v>1300.5</v>
       </c>
       <c r="BG3" s="1">
-        <v>-220.684000</v>
+        <v>-220.684</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>33082.750965</v>
+        <v>33082.750964999999</v>
       </c>
       <c r="BJ3" s="1">
-        <v>9.189653</v>
+        <v>9.1896529999999998</v>
       </c>
       <c r="BK3" s="1">
-        <v>1369.420000</v>
+        <v>1369.42</v>
       </c>
       <c r="BL3" s="1">
-        <v>-358.453000</v>
+        <v>-358.45299999999997</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>33093.419401</v>
+        <v>33093.419400999999</v>
       </c>
       <c r="BO3" s="1">
-        <v>9.192617</v>
+        <v>9.1926170000000003</v>
       </c>
       <c r="BP3" s="1">
-        <v>1482.900000</v>
+        <v>1482.9</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-583.885000</v>
+        <v>-583.88499999999999</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>33103.781821</v>
+        <v>33103.781820999997</v>
       </c>
       <c r="BT3" s="1">
-        <v>9.195495</v>
+        <v>9.1954949999999993</v>
       </c>
       <c r="BU3" s="1">
-        <v>1614.700000</v>
+        <v>1614.7</v>
       </c>
       <c r="BV3" s="1">
-        <v>-839.002000</v>
+        <v>-839.00199999999995</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>33114.468654</v>
+        <v>33114.468653999997</v>
       </c>
       <c r="BY3" s="1">
-        <v>9.198464</v>
+        <v>9.1984639999999995</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1766.330000</v>
+        <v>1766.33</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1117.640000</v>
+        <v>-1117.6400000000001</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>33125.647951</v>
+        <v>33125.647950999999</v>
       </c>
       <c r="CD3" s="1">
-        <v>9.201569</v>
+        <v>9.2015689999999992</v>
       </c>
       <c r="CE3" s="1">
-        <v>2185.490000</v>
+        <v>2185.4899999999998</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1796.340000</v>
+        <v>-1796.34</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>32955.740399</v>
+        <v>32955.740399000002</v>
       </c>
       <c r="B4" s="1">
-        <v>9.154372</v>
+        <v>9.1543720000000004</v>
       </c>
       <c r="C4" s="1">
-        <v>1144.170000</v>
+        <v>1144.17</v>
       </c>
       <c r="D4" s="1">
-        <v>-242.137000</v>
+        <v>-242.137</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>32965.850355</v>
+        <v>32965.850355000002</v>
       </c>
       <c r="G4" s="1">
-        <v>9.157181</v>
+        <v>9.1571809999999996</v>
       </c>
       <c r="H4" s="1">
-        <v>1165.710000</v>
+        <v>1165.71</v>
       </c>
       <c r="I4" s="1">
-        <v>-206.650000</v>
+        <v>-206.65</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>32976.287700</v>
+        <v>32976.287700000001</v>
       </c>
       <c r="L4" s="1">
-        <v>9.160080</v>
+        <v>9.1600800000000007</v>
       </c>
       <c r="M4" s="1">
-        <v>1195.860000</v>
+        <v>1195.8599999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-147.932000</v>
+        <v>-147.93199999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>32986.716054</v>
+        <v>32986.716053999997</v>
       </c>
       <c r="Q4" s="1">
-        <v>9.162977</v>
+        <v>9.1629769999999997</v>
       </c>
       <c r="R4" s="1">
-        <v>1204.820000</v>
+        <v>1204.82</v>
       </c>
       <c r="S4" s="1">
-        <v>-127.242000</v>
+        <v>-127.242</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>32997.555625</v>
+        <v>32997.555625000001</v>
       </c>
       <c r="V4" s="1">
-        <v>9.165988</v>
+        <v>9.1659880000000005</v>
       </c>
       <c r="W4" s="1">
-        <v>1213.400000</v>
+        <v>1213.4000000000001</v>
       </c>
       <c r="X4" s="1">
-        <v>-107.267000</v>
+        <v>-107.267</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>33007.992442</v>
+        <v>33007.992442000002</v>
       </c>
       <c r="AA4" s="1">
-        <v>9.168887</v>
+        <v>9.1688869999999998</v>
       </c>
       <c r="AB4" s="1">
-        <v>1222.080000</v>
+        <v>1222.08</v>
       </c>
       <c r="AC4" s="1">
-        <v>-90.675700</v>
+        <v>-90.675700000000006</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>33018.928769</v>
+        <v>33018.928768999998</v>
       </c>
       <c r="AF4" s="1">
-        <v>9.171925</v>
+        <v>9.1719249999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>1227.130000</v>
+        <v>1227.1300000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-86.257800</v>
+        <v>-86.257800000000003</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>33029.393822</v>
+        <v>33029.393821999998</v>
       </c>
       <c r="AK4" s="1">
-        <v>9.174832</v>
+        <v>9.1748320000000003</v>
       </c>
       <c r="AL4" s="1">
-        <v>1234.510000</v>
+        <v>1234.51</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.554800</v>
+        <v>-89.5548</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>33039.996799</v>
       </c>
       <c r="AP4" s="1">
-        <v>9.177777</v>
+        <v>9.1777770000000007</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1242.510000</v>
+        <v>1242.51</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.430000</v>
+        <v>-101.43</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>33050.618627</v>
+        <v>33050.618627000003</v>
       </c>
       <c r="AU4" s="1">
-        <v>9.180727</v>
+        <v>9.1807269999999992</v>
       </c>
       <c r="AV4" s="1">
-        <v>1252.430000</v>
+        <v>1252.43</v>
       </c>
       <c r="AW4" s="1">
-        <v>-120.787000</v>
+        <v>-120.78700000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>33061.454227</v>
+        <v>33061.454227000002</v>
       </c>
       <c r="AZ4" s="1">
-        <v>9.183737</v>
+        <v>9.1837370000000007</v>
       </c>
       <c r="BA4" s="1">
-        <v>1260.820000</v>
+        <v>1260.82</v>
       </c>
       <c r="BB4" s="1">
-        <v>-138.290000</v>
+        <v>-138.29</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>33072.064647</v>
+        <v>33072.064646999999</v>
       </c>
       <c r="BE4" s="1">
-        <v>9.186685</v>
+        <v>9.1866850000000007</v>
       </c>
       <c r="BF4" s="1">
-        <v>1300.490000</v>
+        <v>1300.49</v>
       </c>
       <c r="BG4" s="1">
-        <v>-220.700000</v>
+        <v>-220.7</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>33083.085783</v>
+        <v>33083.085783000002</v>
       </c>
       <c r="BJ4" s="1">
-        <v>9.189746</v>
+        <v>9.1897459999999995</v>
       </c>
       <c r="BK4" s="1">
-        <v>1369.440000</v>
+        <v>1369.44</v>
       </c>
       <c r="BL4" s="1">
-        <v>-358.464000</v>
+        <v>-358.464</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>33093.826653</v>
+        <v>33093.826652999996</v>
       </c>
       <c r="BO4" s="1">
-        <v>9.192730</v>
+        <v>9.1927299999999992</v>
       </c>
       <c r="BP4" s="1">
-        <v>1482.880000</v>
+        <v>1482.88</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-583.820000</v>
+        <v>-583.82000000000005</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>33104.191019</v>
+        <v>33104.191018999998</v>
       </c>
       <c r="BT4" s="1">
-        <v>9.195609</v>
+        <v>9.1956089999999993</v>
       </c>
       <c r="BU4" s="1">
-        <v>1614.790000</v>
+        <v>1614.79</v>
       </c>
       <c r="BV4" s="1">
-        <v>-838.930000</v>
+        <v>-838.93</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>33114.915519</v>
+        <v>33114.915519000002</v>
       </c>
       <c r="BY4" s="1">
-        <v>9.198588</v>
+        <v>9.1985880000000009</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1766.360000</v>
+        <v>1766.36</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1117.740000</v>
+        <v>-1117.74</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>33126.180654</v>
+        <v>33126.180654000003</v>
       </c>
       <c r="CD4" s="1">
-        <v>9.201717</v>
+        <v>9.2017170000000004</v>
       </c>
       <c r="CE4" s="1">
-        <v>2187.130000</v>
+        <v>2187.13</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1796.720000</v>
+        <v>-1796.72</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>32956.082640</v>
+        <v>32956.082640000001</v>
       </c>
       <c r="B5" s="1">
-        <v>9.154467</v>
+        <v>9.1544670000000004</v>
       </c>
       <c r="C5" s="1">
-        <v>1144.140000</v>
+        <v>1144.1400000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-242.004000</v>
+        <v>-242.00399999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>32966.189619</v>
+        <v>32966.189618999997</v>
       </c>
       <c r="G5" s="1">
-        <v>9.157275</v>
+        <v>9.1572750000000003</v>
       </c>
       <c r="H5" s="1">
-        <v>1165.250000</v>
+        <v>1165.25</v>
       </c>
       <c r="I5" s="1">
-        <v>-206.572000</v>
+        <v>-206.572</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>32976.936435</v>
+        <v>32976.936435000003</v>
       </c>
       <c r="L5" s="1">
-        <v>9.160260</v>
+        <v>9.1602599999999992</v>
       </c>
       <c r="M5" s="1">
-        <v>1195.970000</v>
+        <v>1195.97</v>
       </c>
       <c r="N5" s="1">
-        <v>-147.831000</v>
+        <v>-147.83099999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>32987.381722</v>
+        <v>32987.381721999998</v>
       </c>
       <c r="Q5" s="1">
-        <v>9.163162</v>
+        <v>9.1631619999999998</v>
       </c>
       <c r="R5" s="1">
-        <v>1204.820000</v>
+        <v>1204.82</v>
       </c>
       <c r="S5" s="1">
-        <v>-127.250000</v>
+        <v>-127.25</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>32997.933575</v>
+        <v>32997.933575000003</v>
       </c>
       <c r="V5" s="1">
         <v>9.166093</v>
       </c>
       <c r="W5" s="1">
-        <v>1213.430000</v>
+        <v>1213.43</v>
       </c>
       <c r="X5" s="1">
-        <v>-107.237000</v>
+        <v>-107.23699999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>33008.376842</v>
+        <v>33008.376841999998</v>
       </c>
       <c r="AA5" s="1">
-        <v>9.168994</v>
+        <v>9.1689939999999996</v>
       </c>
       <c r="AB5" s="1">
-        <v>1222.060000</v>
+        <v>1222.06</v>
       </c>
       <c r="AC5" s="1">
-        <v>-90.636700</v>
+        <v>-90.636700000000005</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>33019.273947</v>
+        <v>33019.273947000001</v>
       </c>
       <c r="AF5" s="1">
-        <v>9.172021</v>
+        <v>9.1720210000000009</v>
       </c>
       <c r="AG5" s="1">
-        <v>1227.140000</v>
+        <v>1227.1400000000001</v>
       </c>
       <c r="AH5" s="1">
-        <v>-86.267200</v>
+        <v>-86.267200000000003</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>33029.741057</v>
+        <v>33029.741056999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>9.174928</v>
+        <v>9.1749279999999995</v>
       </c>
       <c r="AL5" s="1">
-        <v>1234.520000</v>
+        <v>1234.52</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.519700</v>
+        <v>-89.5197</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>33040.356399</v>
+        <v>33040.356398999997</v>
       </c>
       <c r="AP5" s="1">
-        <v>9.177877</v>
+        <v>9.1778770000000005</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1242.500000</v>
+        <v>1242.5</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.473000</v>
+        <v>-101.473</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>33051.032332</v>
+        <v>33051.032332000002</v>
       </c>
       <c r="AU5" s="1">
-        <v>9.180842</v>
+        <v>9.1808420000000002</v>
       </c>
       <c r="AV5" s="1">
-        <v>1252.430000</v>
+        <v>1252.43</v>
       </c>
       <c r="AW5" s="1">
-        <v>-120.775000</v>
+        <v>-120.77500000000001</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>33061.753612</v>
       </c>
       <c r="AZ5" s="1">
-        <v>9.183820</v>
+        <v>9.1838200000000008</v>
       </c>
       <c r="BA5" s="1">
-        <v>1260.810000</v>
+        <v>1260.81</v>
       </c>
       <c r="BB5" s="1">
-        <v>-138.319000</v>
+        <v>-138.31899999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>33072.376134</v>
+        <v>33072.376133999998</v>
       </c>
       <c r="BE5" s="1">
-        <v>9.186771</v>
+        <v>9.1867710000000002</v>
       </c>
       <c r="BF5" s="1">
-        <v>1300.460000</v>
+        <v>1300.46</v>
       </c>
       <c r="BG5" s="1">
-        <v>-220.693000</v>
+        <v>-220.69300000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>33083.460758</v>
+        <v>33083.460758000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>9.189850</v>
+        <v>9.1898499999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1369.470000</v>
+        <v>1369.47</v>
       </c>
       <c r="BL5" s="1">
-        <v>-358.479000</v>
+        <v>-358.47899999999998</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>33094.223914</v>
+        <v>33094.223914000002</v>
       </c>
       <c r="BO5" s="1">
-        <v>9.192840</v>
+        <v>9.1928400000000003</v>
       </c>
       <c r="BP5" s="1">
-        <v>1482.870000</v>
+        <v>1482.87</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-583.875000</v>
+        <v>-583.875</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>33104.626010</v>
+        <v>33104.62601</v>
       </c>
       <c r="BT5" s="1">
         <v>9.195729</v>
       </c>
       <c r="BU5" s="1">
-        <v>1614.780000</v>
+        <v>1614.78</v>
       </c>
       <c r="BV5" s="1">
-        <v>-839.091000</v>
+        <v>-839.09100000000001</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>33115.373325</v>
@@ -1477,2433 +1893,2433 @@
         <v>9.198715</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1766.440000</v>
+        <v>1766.44</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1117.910000</v>
+        <v>-1117.9100000000001</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>33126.709898</v>
+        <v>33126.709898000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>9.201864</v>
+        <v>9.2018640000000005</v>
       </c>
       <c r="CE5" s="1">
-        <v>2185.620000</v>
+        <v>2185.62</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1797.500000</v>
+        <v>-1797.5</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>32956.420911</v>
+        <v>32956.420911000001</v>
       </c>
       <c r="B6" s="1">
-        <v>9.154561</v>
+        <v>9.1545609999999993</v>
       </c>
       <c r="C6" s="1">
-        <v>1144.210000</v>
+        <v>1144.21</v>
       </c>
       <c r="D6" s="1">
-        <v>-242.012000</v>
+        <v>-242.012</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>32966.842391</v>
+        <v>32966.842390999998</v>
       </c>
       <c r="G6" s="1">
-        <v>9.157456</v>
+        <v>9.1574559999999998</v>
       </c>
       <c r="H6" s="1">
-        <v>1165.950000</v>
+        <v>1165.95</v>
       </c>
       <c r="I6" s="1">
-        <v>-206.429000</v>
+        <v>-206.429</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>32977.324834</v>
+        <v>32977.324833999999</v>
       </c>
       <c r="L6" s="1">
-        <v>9.160368</v>
+        <v>9.1603680000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>1195.370000</v>
+        <v>1195.3699999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-148.098000</v>
+        <v>-148.09800000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>32987.762118</v>
+        <v>32987.762117999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>9.163267</v>
+        <v>9.1632669999999994</v>
       </c>
       <c r="R6" s="1">
-        <v>1204.790000</v>
+        <v>1204.79</v>
       </c>
       <c r="S6" s="1">
-        <v>-127.293000</v>
+        <v>-127.29300000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>32998.282760</v>
+        <v>32998.282760000002</v>
       </c>
       <c r="V6" s="1">
-        <v>9.166190</v>
+        <v>9.1661900000000003</v>
       </c>
       <c r="W6" s="1">
-        <v>1213.500000</v>
+        <v>1213.5</v>
       </c>
       <c r="X6" s="1">
-        <v>-107.193000</v>
+        <v>-107.193</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>33008.724041</v>
+        <v>33008.724041000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>9.169090</v>
+        <v>9.1690900000000006</v>
       </c>
       <c r="AB6" s="1">
-        <v>1222.080000</v>
+        <v>1222.08</v>
       </c>
       <c r="AC6" s="1">
-        <v>-90.632400</v>
+        <v>-90.632400000000004</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>33019.622171</v>
+        <v>33019.622171000003</v>
       </c>
       <c r="AF6" s="1">
-        <v>9.172117</v>
+        <v>9.1721170000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1227.090000</v>
+        <v>1227.0899999999999</v>
       </c>
       <c r="AH6" s="1">
-        <v>-86.240500</v>
+        <v>-86.240499999999997</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>33030.158158</v>
+        <v>33030.158157999998</v>
       </c>
       <c r="AK6" s="1">
-        <v>9.175044</v>
+        <v>9.1750439999999998</v>
       </c>
       <c r="AL6" s="1">
-        <v>1234.540000</v>
+        <v>1234.54</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.549300</v>
+        <v>-89.549300000000002</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>33040.773535</v>
       </c>
       <c r="AP6" s="1">
-        <v>9.177993</v>
+        <v>9.1779930000000007</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1242.510000</v>
+        <v>1242.51</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.442000</v>
+        <v>-101.44199999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>33051.351248</v>
+        <v>33051.351247999999</v>
       </c>
       <c r="AU6" s="1">
-        <v>9.180931</v>
+        <v>9.1809309999999993</v>
       </c>
       <c r="AV6" s="1">
-        <v>1252.430000</v>
+        <v>1252.43</v>
       </c>
       <c r="AW6" s="1">
-        <v>-120.781000</v>
+        <v>-120.78100000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>33062.112418</v>
+        <v>33062.112417999997</v>
       </c>
       <c r="AZ6" s="1">
-        <v>9.183920</v>
+        <v>9.1839200000000005</v>
       </c>
       <c r="BA6" s="1">
-        <v>1260.800000</v>
+        <v>1260.8</v>
       </c>
       <c r="BB6" s="1">
-        <v>-138.336000</v>
+        <v>-138.33600000000001</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>33072.735237</v>
+        <v>33072.735237000001</v>
       </c>
       <c r="BE6" s="1">
         <v>9.186871</v>
       </c>
       <c r="BF6" s="1">
-        <v>1300.460000</v>
+        <v>1300.46</v>
       </c>
       <c r="BG6" s="1">
-        <v>-220.685000</v>
+        <v>-220.685</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>33083.836699</v>
+        <v>33083.836698999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>9.189955</v>
+        <v>9.1899549999999994</v>
       </c>
       <c r="BK6" s="1">
-        <v>1369.440000</v>
+        <v>1369.44</v>
       </c>
       <c r="BL6" s="1">
-        <v>-358.456000</v>
+        <v>-358.45600000000002</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>33094.645017</v>
+        <v>33094.645017000003</v>
       </c>
       <c r="BO6" s="1">
-        <v>9.192957</v>
+        <v>9.1929569999999998</v>
       </c>
       <c r="BP6" s="1">
-        <v>1482.870000</v>
+        <v>1482.87</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-583.842000</v>
+        <v>-583.84199999999998</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>33105.052569</v>
+        <v>33105.052568999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>9.195848</v>
+        <v>9.1958479999999998</v>
       </c>
       <c r="BU6" s="1">
-        <v>1614.870000</v>
+        <v>1614.87</v>
       </c>
       <c r="BV6" s="1">
-        <v>-839.095000</v>
+        <v>-839.09500000000003</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>33115.818733</v>
       </c>
       <c r="BY6" s="1">
-        <v>9.198839</v>
+        <v>9.1988389999999995</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1766.330000</v>
+        <v>1766.33</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1117.700000</v>
+        <v>-1117.7</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>33127.235676</v>
+        <v>33127.235675999997</v>
       </c>
       <c r="CD6" s="1">
-        <v>9.202010</v>
+        <v>9.2020099999999996</v>
       </c>
       <c r="CE6" s="1">
-        <v>2184.880000</v>
+        <v>2184.88</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1795.650000</v>
+        <v>-1795.65</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>32957.076622</v>
       </c>
       <c r="B7" s="1">
-        <v>9.154744</v>
+        <v>9.1547440000000009</v>
       </c>
       <c r="C7" s="1">
-        <v>1144.150000</v>
+        <v>1144.1500000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>-242.112000</v>
+        <v>-242.11199999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>32967.217825</v>
       </c>
       <c r="G7" s="1">
-        <v>9.157561</v>
+        <v>9.1575609999999994</v>
       </c>
       <c r="H7" s="1">
-        <v>1165.170000</v>
+        <v>1165.17</v>
       </c>
       <c r="I7" s="1">
-        <v>-206.098000</v>
+        <v>-206.09800000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>32977.669554</v>
       </c>
       <c r="L7" s="1">
-        <v>9.160464</v>
+        <v>9.1604639999999993</v>
       </c>
       <c r="M7" s="1">
-        <v>1195.290000</v>
+        <v>1195.29</v>
       </c>
       <c r="N7" s="1">
-        <v>-147.567000</v>
+        <v>-147.56700000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>32988.110044</v>
+        <v>32988.110044000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>9.163364</v>
+        <v>9.1633639999999996</v>
       </c>
       <c r="R7" s="1">
-        <v>1204.770000</v>
+        <v>1204.77</v>
       </c>
       <c r="S7" s="1">
-        <v>-127.286000</v>
+        <v>-127.286</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>32998.627511</v>
+        <v>32998.627510999999</v>
       </c>
       <c r="V7" s="1">
-        <v>9.166285</v>
+        <v>9.1662850000000002</v>
       </c>
       <c r="W7" s="1">
-        <v>1213.420000</v>
+        <v>1213.42</v>
       </c>
       <c r="X7" s="1">
-        <v>-107.230000</v>
+        <v>-107.23</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>33009.134233</v>
+        <v>33009.134232999997</v>
       </c>
       <c r="AA7" s="1">
-        <v>9.169204</v>
+        <v>9.1692040000000006</v>
       </c>
       <c r="AB7" s="1">
-        <v>1221.830000</v>
+        <v>1221.83</v>
       </c>
       <c r="AC7" s="1">
-        <v>-90.715900</v>
+        <v>-90.715900000000005</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>33020.047212</v>
+        <v>33020.047211999998</v>
       </c>
       <c r="AF7" s="1">
-        <v>9.172235</v>
+        <v>9.1722350000000006</v>
       </c>
       <c r="AG7" s="1">
-        <v>1227.100000</v>
+        <v>1227.0999999999999</v>
       </c>
       <c r="AH7" s="1">
-        <v>-86.188300</v>
+        <v>-86.188299999999998</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>33030.443890</v>
+        <v>33030.443890000002</v>
       </c>
       <c r="AK7" s="1">
-        <v>9.175123</v>
+        <v>9.1751229999999993</v>
       </c>
       <c r="AL7" s="1">
-        <v>1234.520000</v>
+        <v>1234.52</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.514600</v>
+        <v>-89.514600000000002</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>33041.075134</v>
+        <v>33041.075133999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>9.178076</v>
+        <v>9.1780760000000008</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1242.480000</v>
+        <v>1242.48</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.441000</v>
+        <v>-101.441</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>33051.715280</v>
+        <v>33051.715279999997</v>
       </c>
       <c r="AU7" s="1">
-        <v>9.181032</v>
+        <v>9.1810320000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1252.440000</v>
+        <v>1252.44</v>
       </c>
       <c r="AW7" s="1">
-        <v>-120.773000</v>
+        <v>-120.773</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>33062.471027</v>
       </c>
       <c r="AZ7" s="1">
-        <v>9.184020</v>
+        <v>9.1840200000000003</v>
       </c>
       <c r="BA7" s="1">
-        <v>1260.810000</v>
+        <v>1260.81</v>
       </c>
       <c r="BB7" s="1">
-        <v>-138.279000</v>
+        <v>-138.279</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>33073.096820</v>
+        <v>33073.096819999999</v>
       </c>
       <c r="BE7" s="1">
-        <v>9.186971</v>
+        <v>9.1869709999999998</v>
       </c>
       <c r="BF7" s="1">
-        <v>1300.480000</v>
+        <v>1300.48</v>
       </c>
       <c r="BG7" s="1">
-        <v>-220.697000</v>
+        <v>-220.697</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>33084.253867</v>
+        <v>33084.253866999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>9.190071</v>
+        <v>9.1900709999999997</v>
       </c>
       <c r="BK7" s="1">
-        <v>1369.410000</v>
+        <v>1369.41</v>
       </c>
       <c r="BL7" s="1">
-        <v>-358.496000</v>
+        <v>-358.49599999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>33095.038877</v>
+        <v>33095.038876999999</v>
       </c>
       <c r="BO7" s="1">
         <v>9.193066</v>
       </c>
       <c r="BP7" s="1">
-        <v>1482.870000</v>
+        <v>1482.87</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-583.881000</v>
+        <v>-583.88099999999997</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>33105.464745</v>
+        <v>33105.464744999997</v>
       </c>
       <c r="BT7" s="1">
-        <v>9.195962</v>
+        <v>9.1959619999999997</v>
       </c>
       <c r="BU7" s="1">
-        <v>1614.900000</v>
+        <v>1614.9</v>
       </c>
       <c r="BV7" s="1">
-        <v>-839.198000</v>
+        <v>-839.19799999999998</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>33116.279516</v>
+        <v>33116.279516000002</v>
       </c>
       <c r="BY7" s="1">
-        <v>9.198967</v>
+        <v>9.1989669999999997</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1766.410000</v>
+        <v>1766.41</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1117.670000</v>
+        <v>-1117.67</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>33128.066941</v>
+        <v>33128.066940999997</v>
       </c>
       <c r="CD7" s="1">
-        <v>9.202241</v>
+        <v>9.2022410000000008</v>
       </c>
       <c r="CE7" s="1">
-        <v>2186.330000</v>
+        <v>2186.33</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1797.240000</v>
+        <v>-1797.24</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>32957.449613</v>
+        <v>32957.449612999997</v>
       </c>
       <c r="B8" s="1">
-        <v>9.154847</v>
+        <v>9.1548470000000002</v>
       </c>
       <c r="C8" s="1">
-        <v>1144.270000</v>
+        <v>1144.27</v>
       </c>
       <c r="D8" s="1">
-        <v>-241.980000</v>
+        <v>-241.98</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>32967.568032</v>
+        <v>32967.568032000003</v>
       </c>
       <c r="G8" s="1">
-        <v>9.157658</v>
+        <v>9.1576579999999996</v>
       </c>
       <c r="H8" s="1">
-        <v>1165.280000</v>
+        <v>1165.28</v>
       </c>
       <c r="I8" s="1">
-        <v>-206.938000</v>
+        <v>-206.93799999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>32978.015729</v>
+        <v>32978.015728999999</v>
       </c>
       <c r="L8" s="1">
-        <v>9.160560</v>
+        <v>9.1605600000000003</v>
       </c>
       <c r="M8" s="1">
-        <v>1195.460000</v>
+        <v>1195.46</v>
       </c>
       <c r="N8" s="1">
-        <v>-147.761000</v>
+        <v>-147.761</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>32988.458499</v>
       </c>
       <c r="Q8" s="1">
-        <v>9.163461</v>
+        <v>9.1634609999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>1204.750000</v>
+        <v>1204.75</v>
       </c>
       <c r="S8" s="1">
-        <v>-127.217000</v>
+        <v>-127.217</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>32999.048584</v>
+        <v>32999.048583999996</v>
       </c>
       <c r="V8" s="1">
-        <v>9.166402</v>
+        <v>9.1664019999999997</v>
       </c>
       <c r="W8" s="1">
-        <v>1213.410000</v>
+        <v>1213.4100000000001</v>
       </c>
       <c r="X8" s="1">
-        <v>-107.299000</v>
+        <v>-107.29900000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>33009.812265</v>
       </c>
       <c r="AA8" s="1">
-        <v>9.169392</v>
+        <v>9.1693920000000002</v>
       </c>
       <c r="AB8" s="1">
-        <v>1221.950000</v>
+        <v>1221.95</v>
       </c>
       <c r="AC8" s="1">
-        <v>-90.712200</v>
+        <v>-90.712199999999996</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>33020.326970</v>
+        <v>33020.326970000002</v>
       </c>
       <c r="AF8" s="1">
-        <v>9.172313</v>
+        <v>9.1723130000000008</v>
       </c>
       <c r="AG8" s="1">
-        <v>1227.140000</v>
+        <v>1227.1400000000001</v>
       </c>
       <c r="AH8" s="1">
-        <v>-86.239800</v>
+        <v>-86.239800000000002</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>33030.790556</v>
       </c>
       <c r="AK8" s="1">
-        <v>9.175220</v>
+        <v>9.1752199999999995</v>
       </c>
       <c r="AL8" s="1">
-        <v>1234.550000</v>
+        <v>1234.55</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.519300</v>
+        <v>-89.519300000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>33041.436190</v>
+        <v>33041.43619</v>
       </c>
       <c r="AP8" s="1">
-        <v>9.178177</v>
+        <v>9.1781769999999998</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1242.510000</v>
+        <v>1242.51</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.434000</v>
+        <v>-101.434</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>33052.080363</v>
+        <v>33052.080363000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>9.181133</v>
+        <v>9.1811330000000009</v>
       </c>
       <c r="AV8" s="1">
-        <v>1252.440000</v>
+        <v>1252.44</v>
       </c>
       <c r="AW8" s="1">
-        <v>-120.791000</v>
+        <v>-120.791</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>33063.195681</v>
+        <v>33063.195680999997</v>
       </c>
       <c r="AZ8" s="1">
-        <v>9.184221</v>
+        <v>9.1842210000000009</v>
       </c>
       <c r="BA8" s="1">
-        <v>1260.820000</v>
+        <v>1260.82</v>
       </c>
       <c r="BB8" s="1">
-        <v>-138.320000</v>
+        <v>-138.32</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>33073.817043</v>
+        <v>33073.817043000003</v>
       </c>
       <c r="BE8" s="1">
-        <v>9.187171</v>
+        <v>9.1871709999999993</v>
       </c>
       <c r="BF8" s="1">
-        <v>1300.510000</v>
+        <v>1300.51</v>
       </c>
       <c r="BG8" s="1">
-        <v>-220.720000</v>
+        <v>-220.72</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>33084.608965</v>
+        <v>33084.608964999999</v>
       </c>
       <c r="BJ8" s="1">
-        <v>9.190169</v>
+        <v>9.1901689999999991</v>
       </c>
       <c r="BK8" s="1">
-        <v>1369.410000</v>
+        <v>1369.41</v>
       </c>
       <c r="BL8" s="1">
-        <v>-358.475000</v>
+        <v>-358.47500000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>33095.459944</v>
+        <v>33095.459944000002</v>
       </c>
       <c r="BO8" s="1">
-        <v>9.193183</v>
+        <v>9.1931829999999994</v>
       </c>
       <c r="BP8" s="1">
-        <v>1482.860000</v>
+        <v>1482.86</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-583.784000</v>
+        <v>-583.78399999999999</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>33105.894281</v>
+        <v>33105.894281000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>9.196082</v>
+        <v>9.1960820000000005</v>
       </c>
       <c r="BU8" s="1">
-        <v>1614.840000</v>
+        <v>1614.84</v>
       </c>
       <c r="BV8" s="1">
-        <v>-839.356000</v>
+        <v>-839.35599999999999</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>33117.043851</v>
+        <v>33117.043851000002</v>
       </c>
       <c r="BY8" s="1">
-        <v>9.199179</v>
+        <v>9.1991790000000009</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1766.610000</v>
+        <v>1766.61</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1117.680000</v>
+        <v>-1117.68</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>33128.303531</v>
+        <v>33128.303530999998</v>
       </c>
       <c r="CD8" s="1">
-        <v>9.202307</v>
+        <v>9.2023069999999993</v>
       </c>
       <c r="CE8" s="1">
-        <v>2187.400000</v>
+        <v>2187.4</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1794.930000</v>
+        <v>-1794.93</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>32957.792349</v>
+        <v>32957.792349000003</v>
       </c>
       <c r="B9" s="1">
-        <v>9.154942</v>
+        <v>9.1549420000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>1144.090000</v>
+        <v>1144.0899999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-241.886000</v>
+        <v>-241.886</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>32967.922179</v>
+        <v>32967.922179000001</v>
       </c>
       <c r="G9" s="1">
-        <v>9.157756</v>
+        <v>9.1577559999999991</v>
       </c>
       <c r="H9" s="1">
-        <v>1165.850000</v>
+        <v>1165.8499999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-207.041000</v>
+        <v>-207.041</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>32978.440337</v>
       </c>
       <c r="L9" s="1">
-        <v>9.160678</v>
+        <v>9.1606780000000008</v>
       </c>
       <c r="M9" s="1">
-        <v>1195.530000</v>
+        <v>1195.53</v>
       </c>
       <c r="N9" s="1">
-        <v>-147.903000</v>
+        <v>-147.90299999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>32988.867236</v>
+        <v>32988.867235999998</v>
       </c>
       <c r="Q9" s="1">
-        <v>9.163574</v>
+        <v>9.1635740000000006</v>
       </c>
       <c r="R9" s="1">
-        <v>1204.750000</v>
+        <v>1204.75</v>
       </c>
       <c r="S9" s="1">
-        <v>-127.208000</v>
+        <v>-127.208</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>32999.325863</v>
+        <v>32999.325862999998</v>
       </c>
       <c r="V9" s="1">
-        <v>9.166479</v>
+        <v>9.1664790000000007</v>
       </c>
       <c r="W9" s="1">
-        <v>1213.500000</v>
+        <v>1213.5</v>
       </c>
       <c r="X9" s="1">
-        <v>-107.226000</v>
+        <v>-107.226</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>33010.130695</v>
       </c>
       <c r="AA9" s="1">
-        <v>9.169481</v>
+        <v>9.1694809999999993</v>
       </c>
       <c r="AB9" s="1">
-        <v>1222.010000</v>
+        <v>1222.01</v>
       </c>
       <c r="AC9" s="1">
-        <v>-90.690300</v>
+        <v>-90.690299999999993</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>33020.669193</v>
+        <v>33020.669193000002</v>
       </c>
       <c r="AF9" s="1">
-        <v>9.172408</v>
+        <v>9.1724080000000008</v>
       </c>
       <c r="AG9" s="1">
-        <v>1227.110000</v>
+        <v>1227.1099999999999</v>
       </c>
       <c r="AH9" s="1">
-        <v>-86.264800</v>
+        <v>-86.264799999999994</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>33031.140763</v>
+        <v>33031.140763000003</v>
       </c>
       <c r="AK9" s="1">
-        <v>9.175317</v>
+        <v>9.1753169999999997</v>
       </c>
       <c r="AL9" s="1">
-        <v>1234.480000</v>
+        <v>1234.48</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.544500</v>
+        <v>-89.544499999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>33041.801245</v>
+        <v>33041.801245000002</v>
       </c>
       <c r="AP9" s="1">
-        <v>9.178278</v>
+        <v>9.1782780000000006</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1242.510000</v>
+        <v>1242.51</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.427000</v>
+        <v>-101.42700000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>33052.810478</v>
+        <v>33052.810477999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>9.181336</v>
+        <v>9.1813359999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1252.430000</v>
+        <v>1252.43</v>
       </c>
       <c r="AW9" s="1">
-        <v>-120.770000</v>
+        <v>-120.77</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>33063.568206</v>
+        <v>33063.568206000004</v>
       </c>
       <c r="AZ9" s="1">
-        <v>9.184325</v>
+        <v>9.1843249999999994</v>
       </c>
       <c r="BA9" s="1">
-        <v>1260.840000</v>
+        <v>1260.8399999999999</v>
       </c>
       <c r="BB9" s="1">
-        <v>-138.303000</v>
+        <v>-138.303</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>33074.177137</v>
+        <v>33074.177136999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>9.187271</v>
+        <v>9.1872710000000009</v>
       </c>
       <c r="BF9" s="1">
-        <v>1300.470000</v>
+        <v>1300.47</v>
       </c>
       <c r="BG9" s="1">
-        <v>-220.714000</v>
+        <v>-220.714</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>33084.985430</v>
+        <v>33084.985430000001</v>
       </c>
       <c r="BJ9" s="1">
-        <v>9.190274</v>
+        <v>9.1902740000000005</v>
       </c>
       <c r="BK9" s="1">
-        <v>1369.440000</v>
+        <v>1369.44</v>
       </c>
       <c r="BL9" s="1">
-        <v>-358.474000</v>
+        <v>-358.47399999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>33096.168725</v>
+        <v>33096.168725000003</v>
       </c>
       <c r="BO9" s="1">
-        <v>9.193380</v>
+        <v>9.1933799999999994</v>
       </c>
       <c r="BP9" s="1">
-        <v>1482.870000</v>
+        <v>1482.87</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-583.779000</v>
+        <v>-583.779</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>33106.625415</v>
+        <v>33106.625415000002</v>
       </c>
       <c r="BT9" s="1">
-        <v>9.196285</v>
+        <v>9.1962849999999996</v>
       </c>
       <c r="BU9" s="1">
-        <v>1614.730000</v>
+        <v>1614.73</v>
       </c>
       <c r="BV9" s="1">
-        <v>-839.440000</v>
+        <v>-839.44</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>33117.178267</v>
+        <v>33117.178267000003</v>
       </c>
       <c r="BY9" s="1">
-        <v>9.199216</v>
+        <v>9.1992159999999998</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1766.330000</v>
+        <v>1766.33</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1117.640000</v>
+        <v>-1117.6400000000001</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>33128.836254</v>
+        <v>33128.836254000002</v>
       </c>
       <c r="CD9" s="1">
-        <v>9.202455</v>
+        <v>9.2024550000000005</v>
       </c>
       <c r="CE9" s="1">
-        <v>2185.080000</v>
+        <v>2185.08</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1796.040000</v>
+        <v>-1796.04</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>32958.133100</v>
+        <v>32958.133099999999</v>
       </c>
       <c r="B10" s="1">
-        <v>9.155037</v>
+        <v>9.1550370000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1143.990000</v>
+        <v>1143.99</v>
       </c>
       <c r="D10" s="1">
-        <v>-242.280000</v>
+        <v>-242.28</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>32968.340799</v>
+        <v>32968.340798999998</v>
       </c>
       <c r="G10" s="1">
-        <v>9.157872</v>
+        <v>9.1578719999999993</v>
       </c>
       <c r="H10" s="1">
-        <v>1165.520000</v>
+        <v>1165.52</v>
       </c>
       <c r="I10" s="1">
-        <v>-205.532000</v>
+        <v>-205.53200000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>32978.719553</v>
+        <v>32978.719553000003</v>
       </c>
       <c r="L10" s="1">
         <v>9.160755</v>
       </c>
       <c r="M10" s="1">
-        <v>1195.570000</v>
+        <v>1195.57</v>
       </c>
       <c r="N10" s="1">
-        <v>-147.458000</v>
+        <v>-147.458</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>32989.158386</v>
+        <v>32989.158386000003</v>
       </c>
       <c r="Q10" s="1">
-        <v>9.163655</v>
+        <v>9.1636550000000003</v>
       </c>
       <c r="R10" s="1">
-        <v>1204.800000</v>
+        <v>1204.8</v>
       </c>
       <c r="S10" s="1">
-        <v>-127.186000</v>
+        <v>-127.18600000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>32999.665109</v>
+        <v>32999.665109000001</v>
       </c>
       <c r="V10" s="1">
-        <v>9.166574</v>
+        <v>9.1665740000000007</v>
       </c>
       <c r="W10" s="1">
-        <v>1213.440000</v>
+        <v>1213.44</v>
       </c>
       <c r="X10" s="1">
-        <v>-107.313000</v>
+        <v>-107.313</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>33010.481368</v>
+        <v>33010.481368000001</v>
       </c>
       <c r="AA10" s="1">
-        <v>9.169578</v>
+        <v>9.1695779999999996</v>
       </c>
       <c r="AB10" s="1">
-        <v>1222.060000</v>
+        <v>1222.06</v>
       </c>
       <c r="AC10" s="1">
-        <v>-90.665700</v>
+        <v>-90.665700000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>33021.012921</v>
+        <v>33021.012921000001</v>
       </c>
       <c r="AF10" s="1">
         <v>9.172504</v>
       </c>
       <c r="AG10" s="1">
-        <v>1227.120000</v>
+        <v>1227.1199999999999</v>
       </c>
       <c r="AH10" s="1">
-        <v>-86.247900</v>
+        <v>-86.247900000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>33031.834634</v>
+        <v>33031.834633999999</v>
       </c>
       <c r="AK10" s="1">
-        <v>9.175510</v>
+        <v>9.1755099999999992</v>
       </c>
       <c r="AL10" s="1">
-        <v>1234.510000</v>
+        <v>1234.51</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.557900</v>
+        <v>-89.557900000000004</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>33042.516974</v>
+        <v>33042.516973999998</v>
       </c>
       <c r="AP10" s="1">
-        <v>9.178477</v>
+        <v>9.1784770000000009</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1242.520000</v>
+        <v>1242.52</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.444000</v>
+        <v>-101.444</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>33053.200830</v>
+        <v>33053.200830000002</v>
       </c>
       <c r="AU10" s="1">
-        <v>9.181445</v>
+        <v>9.1814450000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1252.430000</v>
+        <v>1252.43</v>
       </c>
       <c r="AW10" s="1">
-        <v>-120.760000</v>
+        <v>-120.76</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>33063.950627</v>
+        <v>33063.950626999998</v>
       </c>
       <c r="AZ10" s="1">
         <v>9.184431</v>
       </c>
       <c r="BA10" s="1">
-        <v>1260.840000</v>
+        <v>1260.8399999999999</v>
       </c>
       <c r="BB10" s="1">
-        <v>-138.305000</v>
+        <v>-138.30500000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>33074.538692</v>
+        <v>33074.538692000002</v>
       </c>
       <c r="BE10" s="1">
-        <v>9.187372</v>
+        <v>9.1873719999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1300.510000</v>
+        <v>1300.51</v>
       </c>
       <c r="BG10" s="1">
-        <v>-220.687000</v>
+        <v>-220.68700000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>33085.680323</v>
       </c>
       <c r="BJ10" s="1">
-        <v>9.190467</v>
+        <v>9.1904669999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1369.470000</v>
+        <v>1369.47</v>
       </c>
       <c r="BL10" s="1">
-        <v>-358.467000</v>
+        <v>-358.46699999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>33096.294709</v>
+        <v>33096.294709000002</v>
       </c>
       <c r="BO10" s="1">
-        <v>9.193415</v>
+        <v>9.1934149999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1482.880000</v>
+        <v>1482.88</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-583.813000</v>
+        <v>-583.81299999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>33106.770216</v>
+        <v>33106.770215999997</v>
       </c>
       <c r="BT10" s="1">
-        <v>9.196325</v>
+        <v>9.1963249999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1614.740000</v>
+        <v>1614.74</v>
       </c>
       <c r="BV10" s="1">
-        <v>-839.506000</v>
+        <v>-839.50599999999997</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>33117.597900</v>
+        <v>33117.597900000001</v>
       </c>
       <c r="BY10" s="1">
-        <v>9.199333</v>
+        <v>9.1993329999999993</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1766.390000</v>
+        <v>1766.39</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1117.900000</v>
+        <v>-1117.9000000000001</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>33129.378398</v>
+        <v>33129.378398000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>9.202605</v>
+        <v>9.2026050000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>2187.590000</v>
+        <v>2187.59</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1796.340000</v>
+        <v>-1796.34</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>32958.561147</v>
       </c>
       <c r="B11" s="1">
-        <v>9.155156</v>
+        <v>9.1551559999999998</v>
       </c>
       <c r="C11" s="1">
-        <v>1144.300000</v>
+        <v>1144.3</v>
       </c>
       <c r="D11" s="1">
-        <v>-242.093000</v>
+        <v>-242.09299999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>32968.618031</v>
+        <v>32968.618030999998</v>
       </c>
       <c r="G11" s="1">
-        <v>9.157949</v>
+        <v>9.1579490000000003</v>
       </c>
       <c r="H11" s="1">
-        <v>1165.580000</v>
+        <v>1165.58</v>
       </c>
       <c r="I11" s="1">
-        <v>-206.474000</v>
+        <v>-206.47399999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>32979.064313</v>
+        <v>32979.064313000003</v>
       </c>
       <c r="L11" s="1">
-        <v>9.160851</v>
+        <v>9.1608509999999992</v>
       </c>
       <c r="M11" s="1">
-        <v>1195.660000</v>
+        <v>1195.6600000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-147.720000</v>
+        <v>-147.72</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>32989.505556</v>
+        <v>32989.505555999996</v>
       </c>
       <c r="Q11" s="1">
-        <v>9.163752</v>
+        <v>9.1637520000000006</v>
       </c>
       <c r="R11" s="1">
-        <v>1204.810000</v>
+        <v>1204.81</v>
       </c>
       <c r="S11" s="1">
-        <v>-127.245000</v>
+        <v>-127.245</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>33000.009004</v>
       </c>
       <c r="V11" s="1">
-        <v>9.166669</v>
+        <v>9.1666690000000006</v>
       </c>
       <c r="W11" s="1">
-        <v>1213.500000</v>
+        <v>1213.5</v>
       </c>
       <c r="X11" s="1">
-        <v>-107.240000</v>
+        <v>-107.24</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>33011.177782</v>
+        <v>33011.177781999999</v>
       </c>
       <c r="AA11" s="1">
         <v>9.169772</v>
       </c>
       <c r="AB11" s="1">
-        <v>1221.920000</v>
+        <v>1221.92</v>
       </c>
       <c r="AC11" s="1">
-        <v>-90.390000</v>
+        <v>-90.39</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>33021.696936</v>
       </c>
       <c r="AF11" s="1">
-        <v>9.172694</v>
+        <v>9.1726939999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>1227.110000</v>
+        <v>1227.1099999999999</v>
       </c>
       <c r="AH11" s="1">
-        <v>-86.193800</v>
+        <v>-86.193799999999996</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>33032.184812</v>
       </c>
       <c r="AK11" s="1">
-        <v>9.175607</v>
+        <v>9.1756069999999994</v>
       </c>
       <c r="AL11" s="1">
-        <v>1234.520000</v>
+        <v>1234.52</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.530300</v>
+        <v>-89.530299999999997</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>33042.877580</v>
+        <v>33042.87758</v>
       </c>
       <c r="AP11" s="1">
-        <v>9.178577</v>
+        <v>9.1785770000000007</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1242.520000</v>
+        <v>1242.52</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.454000</v>
+        <v>-101.45399999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>33053.566351</v>
+        <v>33053.566351000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>9.181546</v>
+        <v>9.1815460000000009</v>
       </c>
       <c r="AV11" s="1">
-        <v>1252.440000</v>
+        <v>1252.44</v>
       </c>
       <c r="AW11" s="1">
-        <v>-120.779000</v>
+        <v>-120.779</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>33064.619201</v>
+        <v>33064.619201000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>9.184616</v>
+        <v>9.1846160000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1260.810000</v>
+        <v>1260.81</v>
       </c>
       <c r="BB11" s="1">
-        <v>-138.314000</v>
+        <v>-138.31399999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>33075.223665</v>
+        <v>33075.223664999998</v>
       </c>
       <c r="BE11" s="1">
-        <v>9.187562</v>
+        <v>9.1875619999999998</v>
       </c>
       <c r="BF11" s="1">
-        <v>1300.490000</v>
+        <v>1300.49</v>
       </c>
       <c r="BG11" s="1">
-        <v>-220.697000</v>
+        <v>-220.697</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>33086.108371</v>
+        <v>33086.108371000002</v>
       </c>
       <c r="BJ11" s="1">
-        <v>9.190586</v>
+        <v>9.1905859999999997</v>
       </c>
       <c r="BK11" s="1">
-        <v>1369.390000</v>
+        <v>1369.39</v>
       </c>
       <c r="BL11" s="1">
-        <v>-358.482000</v>
+        <v>-358.48200000000003</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>33096.705398</v>
+        <v>33096.705397999998</v>
       </c>
       <c r="BO11" s="1">
-        <v>9.193529</v>
+        <v>9.1935289999999998</v>
       </c>
       <c r="BP11" s="1">
-        <v>1482.860000</v>
+        <v>1482.86</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-583.834000</v>
+        <v>-583.83399999999995</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>33107.180903</v>
       </c>
       <c r="BT11" s="1">
-        <v>9.196439</v>
+        <v>9.1964389999999998</v>
       </c>
       <c r="BU11" s="1">
-        <v>1614.610000</v>
+        <v>1614.61</v>
       </c>
       <c r="BV11" s="1">
-        <v>-839.579000</v>
+        <v>-839.57899999999995</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>33118.022953</v>
       </c>
       <c r="BY11" s="1">
-        <v>9.199451</v>
+        <v>9.1994509999999998</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1766.490000</v>
+        <v>1766.49</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1117.700000</v>
+        <v>-1117.7</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>33129.919535</v>
+        <v>33129.919535000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>9.202755</v>
+        <v>9.2027549999999998</v>
       </c>
       <c r="CE11" s="1">
-        <v>2185.590000</v>
+        <v>2185.59</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1795.080000</v>
+        <v>-1795.08</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>32958.845959</v>
+        <v>32958.845958999998</v>
       </c>
       <c r="B12" s="1">
-        <v>9.155235</v>
+        <v>9.1552349999999993</v>
       </c>
       <c r="C12" s="1">
-        <v>1144.030000</v>
+        <v>1144.03</v>
       </c>
       <c r="D12" s="1">
-        <v>-241.986000</v>
+        <v>-241.98599999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>32968.965762</v>
       </c>
       <c r="G12" s="1">
-        <v>9.158046</v>
+        <v>9.1580460000000006</v>
       </c>
       <c r="H12" s="1">
-        <v>1165.480000</v>
+        <v>1165.48</v>
       </c>
       <c r="I12" s="1">
-        <v>-205.240000</v>
+        <v>-205.24</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>32979.410817</v>
+        <v>32979.410817000004</v>
       </c>
       <c r="L12" s="1">
-        <v>9.160947</v>
+        <v>9.1609470000000002</v>
       </c>
       <c r="M12" s="1">
-        <v>1195.810000</v>
+        <v>1195.81</v>
       </c>
       <c r="N12" s="1">
-        <v>-147.652000</v>
+        <v>-147.65199999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>32989.850276</v>
+        <v>32989.850275999997</v>
       </c>
       <c r="Q12" s="1">
-        <v>9.163847</v>
+        <v>9.1638470000000005</v>
       </c>
       <c r="R12" s="1">
-        <v>1204.810000</v>
+        <v>1204.81</v>
       </c>
       <c r="S12" s="1">
-        <v>-127.232000</v>
+        <v>-127.232</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>33000.696820</v>
+        <v>33000.696819999997</v>
       </c>
       <c r="V12" s="1">
-        <v>9.166860</v>
+        <v>9.1668599999999998</v>
       </c>
       <c r="W12" s="1">
-        <v>1213.440000</v>
+        <v>1213.44</v>
       </c>
       <c r="X12" s="1">
-        <v>-107.333000</v>
+        <v>-107.333</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>33011.525446</v>
       </c>
       <c r="AA12" s="1">
-        <v>9.169868</v>
+        <v>9.1698679999999992</v>
       </c>
       <c r="AB12" s="1">
-        <v>1222.030000</v>
+        <v>1222.03</v>
       </c>
       <c r="AC12" s="1">
-        <v>-90.572200</v>
+        <v>-90.572199999999995</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>33022.046089</v>
+        <v>33022.046089000003</v>
       </c>
       <c r="AF12" s="1">
-        <v>9.172791</v>
+        <v>9.1727910000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>1227.130000</v>
+        <v>1227.1300000000001</v>
       </c>
       <c r="AH12" s="1">
-        <v>-86.193300</v>
+        <v>-86.193299999999994</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>33032.534025</v>
+        <v>33032.534025000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>9.175704</v>
+        <v>9.1757039999999996</v>
       </c>
       <c r="AL12" s="1">
-        <v>1234.520000</v>
+        <v>1234.52</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.556300</v>
+        <v>-89.556299999999993</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>33043.542699</v>
+        <v>33043.542698999998</v>
       </c>
       <c r="AP12" s="1">
-        <v>9.178762</v>
+        <v>9.1787620000000008</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1242.520000</v>
+        <v>1242.52</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.447000</v>
+        <v>-101.447</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>33054.234989</v>
+        <v>33054.234988999997</v>
       </c>
       <c r="AU12" s="1">
-        <v>9.181732</v>
+        <v>9.1817320000000002</v>
       </c>
       <c r="AV12" s="1">
-        <v>1252.460000</v>
+        <v>1252.46</v>
       </c>
       <c r="AW12" s="1">
-        <v>-120.803000</v>
+        <v>-120.803</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>33065.033855</v>
+        <v>33065.033855000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>9.184732</v>
+        <v>9.1847320000000003</v>
       </c>
       <c r="BA12" s="1">
-        <v>1260.810000</v>
+        <v>1260.81</v>
       </c>
       <c r="BB12" s="1">
-        <v>-138.283000</v>
+        <v>-138.28299999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>33075.650226</v>
+        <v>33075.650225999998</v>
       </c>
       <c r="BE12" s="1">
-        <v>9.187681</v>
+        <v>9.1876809999999995</v>
       </c>
       <c r="BF12" s="1">
-        <v>1300.490000</v>
+        <v>1300.49</v>
       </c>
       <c r="BG12" s="1">
-        <v>-220.685000</v>
+        <v>-220.685</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>33086.488308</v>
       </c>
       <c r="BJ12" s="1">
-        <v>9.190691</v>
+        <v>9.1906909999999993</v>
       </c>
       <c r="BK12" s="1">
-        <v>1369.420000</v>
+        <v>1369.42</v>
       </c>
       <c r="BL12" s="1">
-        <v>-358.452000</v>
+        <v>-358.452</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>33097.101700</v>
+        <v>33097.101699999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>9.193639</v>
+        <v>9.1936389999999992</v>
       </c>
       <c r="BP12" s="1">
-        <v>1482.840000</v>
+        <v>1482.84</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-583.816000</v>
+        <v>-583.81600000000003</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>33107.609481</v>
       </c>
       <c r="BT12" s="1">
-        <v>9.196558</v>
+        <v>9.1965579999999996</v>
       </c>
       <c r="BU12" s="1">
-        <v>1614.710000</v>
+        <v>1614.71</v>
       </c>
       <c r="BV12" s="1">
-        <v>-839.640000</v>
+        <v>-839.64</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>33118.440088</v>
+        <v>33118.440088000003</v>
       </c>
       <c r="BY12" s="1">
         <v>9.199567</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1766.440000</v>
+        <v>1766.44</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1117.580000</v>
+        <v>-1117.58</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>33130.459175</v>
+        <v>33130.459175000004</v>
       </c>
       <c r="CD12" s="1">
-        <v>9.202905</v>
+        <v>9.2029049999999994</v>
       </c>
       <c r="CE12" s="1">
-        <v>2186.340000</v>
+        <v>2186.34</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1796.980000</v>
+        <v>-1796.98</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>32959.196040</v>
+        <v>32959.196040000003</v>
       </c>
       <c r="B13" s="1">
-        <v>9.155332</v>
+        <v>9.1553319999999996</v>
       </c>
       <c r="C13" s="1">
-        <v>1144.150000</v>
+        <v>1144.1500000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-241.700000</v>
+        <v>-241.7</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>32969.310941</v>
+        <v>32969.310941000003</v>
       </c>
       <c r="G13" s="1">
-        <v>9.158142</v>
+        <v>9.1581419999999998</v>
       </c>
       <c r="H13" s="1">
-        <v>1165.670000</v>
+        <v>1165.67</v>
       </c>
       <c r="I13" s="1">
-        <v>-206.608000</v>
+        <v>-206.608</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>32980.101903</v>
+        <v>32980.101903000002</v>
       </c>
       <c r="L13" s="1">
-        <v>9.161139</v>
+        <v>9.1611390000000004</v>
       </c>
       <c r="M13" s="1">
-        <v>1195.880000</v>
+        <v>1195.8800000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>-147.903000</v>
+        <v>-147.90299999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>32990.549137</v>
+        <v>32990.549137000002</v>
       </c>
       <c r="Q13" s="1">
-        <v>9.164041</v>
+        <v>9.1640409999999992</v>
       </c>
       <c r="R13" s="1">
-        <v>1204.720000</v>
+        <v>1204.72</v>
       </c>
       <c r="S13" s="1">
-        <v>-127.251000</v>
+        <v>-127.251</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>33001.043026</v>
+        <v>33001.043025999999</v>
       </c>
       <c r="V13" s="1">
-        <v>9.166956</v>
+        <v>9.1669560000000008</v>
       </c>
       <c r="W13" s="1">
-        <v>1213.430000</v>
+        <v>1213.43</v>
       </c>
       <c r="X13" s="1">
-        <v>-107.264000</v>
+        <v>-107.264</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>33011.874629</v>
+        <v>33011.874628999998</v>
       </c>
       <c r="AA13" s="1">
-        <v>9.169965</v>
+        <v>9.1699649999999995</v>
       </c>
       <c r="AB13" s="1">
-        <v>1222.180000</v>
+        <v>1222.18</v>
       </c>
       <c r="AC13" s="1">
-        <v>-90.714200</v>
+        <v>-90.714200000000005</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>33022.383894</v>
+        <v>33022.383893999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>9.172884</v>
+        <v>9.1728839999999998</v>
       </c>
       <c r="AG13" s="1">
-        <v>1227.150000</v>
+        <v>1227.1500000000001</v>
       </c>
       <c r="AH13" s="1">
-        <v>-86.279600</v>
+        <v>-86.279600000000002</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>33033.188714</v>
+        <v>33033.188714000004</v>
       </c>
       <c r="AK13" s="1">
-        <v>9.175886</v>
+        <v>9.1758860000000002</v>
       </c>
       <c r="AL13" s="1">
-        <v>1234.510000</v>
+        <v>1234.51</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.546900</v>
+        <v>-89.546899999999994</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>33043.982652</v>
+        <v>33043.982651999999</v>
       </c>
       <c r="AP13" s="1">
         <v>9.178884</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1242.520000</v>
+        <v>1242.52</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.449000</v>
+        <v>-101.449</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>33054.691807</v>
+        <v>33054.691807000003</v>
       </c>
       <c r="AU13" s="1">
-        <v>9.181859</v>
+        <v>9.1818589999999993</v>
       </c>
       <c r="AV13" s="1">
-        <v>1252.430000</v>
+        <v>1252.43</v>
       </c>
       <c r="AW13" s="1">
-        <v>-120.791000</v>
+        <v>-120.791</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>33065.407838</v>
+        <v>33065.407837999999</v>
       </c>
       <c r="AZ13" s="1">
-        <v>9.184836</v>
+        <v>9.1848360000000007</v>
       </c>
       <c r="BA13" s="1">
-        <v>1260.830000</v>
+        <v>1260.83</v>
       </c>
       <c r="BB13" s="1">
-        <v>-138.297000</v>
+        <v>-138.297</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>33076.012832</v>
       </c>
       <c r="BE13" s="1">
-        <v>9.187781</v>
+        <v>9.1877809999999993</v>
       </c>
       <c r="BF13" s="1">
-        <v>1300.500000</v>
+        <v>1300.5</v>
       </c>
       <c r="BG13" s="1">
-        <v>-220.697000</v>
+        <v>-220.697</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>33086.862822</v>
+        <v>33086.862822000003</v>
       </c>
       <c r="BJ13" s="1">
-        <v>9.190795</v>
+        <v>9.1907949999999996</v>
       </c>
       <c r="BK13" s="1">
-        <v>1369.470000</v>
+        <v>1369.47</v>
       </c>
       <c r="BL13" s="1">
-        <v>-358.494000</v>
+        <v>-358.49400000000003</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>33097.521853</v>
+        <v>33097.521852999998</v>
       </c>
       <c r="BO13" s="1">
-        <v>9.193756</v>
+        <v>9.1937560000000005</v>
       </c>
       <c r="BP13" s="1">
-        <v>1482.920000</v>
+        <v>1482.92</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-583.868000</v>
+        <v>-583.86800000000005</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>33108.029592</v>
+        <v>33108.029591999999</v>
       </c>
       <c r="BT13" s="1">
-        <v>9.196675</v>
+        <v>9.1966750000000008</v>
       </c>
       <c r="BU13" s="1">
-        <v>1614.570000</v>
+        <v>1614.57</v>
       </c>
       <c r="BV13" s="1">
-        <v>-839.617000</v>
+        <v>-839.61699999999996</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>33118.888472</v>
+        <v>33118.888471999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>9.199691</v>
+        <v>9.1996909999999996</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1766.270000</v>
+        <v>1766.27</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1117.730000</v>
+        <v>-1117.73</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>33131.000279</v>
       </c>
       <c r="CD13" s="1">
-        <v>9.203056</v>
+        <v>9.2030560000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>2187.600000</v>
+        <v>2187.6</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1794.830000</v>
+        <v>-1794.83</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>32959.653836</v>
+        <v>32959.653835999998</v>
       </c>
       <c r="B14" s="1">
-        <v>9.155459</v>
+        <v>9.1554590000000005</v>
       </c>
       <c r="C14" s="1">
-        <v>1144.210000</v>
+        <v>1144.21</v>
       </c>
       <c r="D14" s="1">
-        <v>-241.968000</v>
+        <v>-241.96799999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>32970.005836</v>
+        <v>32970.005835999997</v>
       </c>
       <c r="G14" s="1">
-        <v>9.158335</v>
+        <v>9.1583349999999992</v>
       </c>
       <c r="H14" s="1">
-        <v>1164.880000</v>
+        <v>1164.8800000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-206.562000</v>
+        <v>-206.56200000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>32980.444638</v>
+        <v>32980.444638000001</v>
       </c>
       <c r="L14" s="1">
-        <v>9.161235</v>
+        <v>9.1612349999999996</v>
       </c>
       <c r="M14" s="1">
-        <v>1195.650000</v>
+        <v>1195.6500000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-147.704000</v>
+        <v>-147.70400000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>32990.898322</v>
+        <v>32990.898322000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>9.164138</v>
+        <v>9.1641379999999995</v>
       </c>
       <c r="R14" s="1">
-        <v>1204.700000</v>
+        <v>1204.7</v>
       </c>
       <c r="S14" s="1">
-        <v>-127.194000</v>
+        <v>-127.194</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>33001.382259</v>
+        <v>33001.382258999998</v>
       </c>
       <c r="V14" s="1">
-        <v>9.167051</v>
+        <v>9.1670510000000007</v>
       </c>
       <c r="W14" s="1">
-        <v>1213.430000</v>
+        <v>1213.43</v>
       </c>
       <c r="X14" s="1">
-        <v>-107.290000</v>
+        <v>-107.29</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>33012.538276</v>
+        <v>33012.538275999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>9.170150</v>
+        <v>9.1701499999999996</v>
       </c>
       <c r="AB14" s="1">
-        <v>1222.150000</v>
+        <v>1222.1500000000001</v>
       </c>
       <c r="AC14" s="1">
-        <v>-90.670500</v>
+        <v>-90.670500000000004</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>33023.054486</v>
+        <v>33023.054486000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>9.173071</v>
+        <v>9.1730710000000002</v>
       </c>
       <c r="AG14" s="1">
-        <v>1227.130000</v>
+        <v>1227.1300000000001</v>
       </c>
       <c r="AH14" s="1">
-        <v>-86.213100</v>
+        <v>-86.213099999999997</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>33033.578600</v>
+        <v>33033.578600000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>9.175994</v>
+        <v>9.1759939999999993</v>
       </c>
       <c r="AL14" s="1">
-        <v>1234.500000</v>
+        <v>1234.5</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.543900</v>
+        <v>-89.543899999999994</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>33044.346230</v>
+        <v>33044.346230000003</v>
       </c>
       <c r="AP14" s="1">
-        <v>9.178985</v>
+        <v>9.1789850000000008</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1242.520000</v>
+        <v>1242.52</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.454000</v>
+        <v>-101.45399999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>33055.054845</v>
+        <v>33055.054844999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>9.181960</v>
+        <v>9.1819600000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1252.420000</v>
+        <v>1252.42</v>
       </c>
       <c r="AW14" s="1">
-        <v>-120.781000</v>
+        <v>-120.78100000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>33065.788767</v>
+        <v>33065.788766999998</v>
       </c>
       <c r="AZ14" s="1">
-        <v>9.184941</v>
+        <v>9.1849410000000002</v>
       </c>
       <c r="BA14" s="1">
-        <v>1260.820000</v>
+        <v>1260.82</v>
       </c>
       <c r="BB14" s="1">
-        <v>-138.322000</v>
+        <v>-138.322</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>33076.373393</v>
+        <v>33076.373393000002</v>
       </c>
       <c r="BE14" s="1">
-        <v>9.187881</v>
+        <v>9.1878810000000009</v>
       </c>
       <c r="BF14" s="1">
-        <v>1300.480000</v>
+        <v>1300.48</v>
       </c>
       <c r="BG14" s="1">
-        <v>-220.684000</v>
+        <v>-220.684</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>33087.278962</v>
+        <v>33087.278961999997</v>
       </c>
       <c r="BJ14" s="1">
-        <v>9.190911</v>
+        <v>9.1909109999999998</v>
       </c>
       <c r="BK14" s="1">
-        <v>1369.450000</v>
+        <v>1369.45</v>
       </c>
       <c r="BL14" s="1">
-        <v>-358.464000</v>
+        <v>-358.464</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>33097.920595</v>
+        <v>33097.920595000003</v>
       </c>
       <c r="BO14" s="1">
-        <v>9.193867</v>
+        <v>9.1938669999999991</v>
       </c>
       <c r="BP14" s="1">
-        <v>1482.890000</v>
+        <v>1482.89</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-583.807000</v>
+        <v>-583.80700000000002</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>33108.439255</v>
+        <v>33108.439254999998</v>
       </c>
       <c r="BT14" s="1">
-        <v>9.196789</v>
+        <v>9.1967890000000008</v>
       </c>
       <c r="BU14" s="1">
-        <v>1614.500000</v>
+        <v>1614.5</v>
       </c>
       <c r="BV14" s="1">
-        <v>-839.636000</v>
+        <v>-839.63599999999997</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>33119.306135</v>
+        <v>33119.306134999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>9.199807</v>
+        <v>9.1998069999999998</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1766.390000</v>
+        <v>1766.39</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1117.700000</v>
+        <v>-1117.7</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>33131.537980</v>
+        <v>33131.537980000001</v>
       </c>
       <c r="CD14" s="1">
-        <v>9.203205</v>
+        <v>9.2032050000000005</v>
       </c>
       <c r="CE14" s="1">
-        <v>2184.520000</v>
+        <v>2184.52</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1796.230000</v>
+        <v>-1796.23</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>32959.898393</v>
+        <v>32959.898393000003</v>
       </c>
       <c r="B15" s="1">
-        <v>9.155527</v>
+        <v>9.1555269999999993</v>
       </c>
       <c r="C15" s="1">
-        <v>1144.140000</v>
+        <v>1144.1400000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-242.040000</v>
+        <v>-242.04</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>32970.352045</v>
       </c>
       <c r="G15" s="1">
-        <v>9.158431</v>
+        <v>9.1584310000000002</v>
       </c>
       <c r="H15" s="1">
-        <v>1165.340000</v>
+        <v>1165.3399999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-206.198000</v>
+        <v>-206.19800000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>32980.792336</v>
+        <v>32980.792335999999</v>
       </c>
       <c r="L15" s="1">
-        <v>9.161331</v>
+        <v>9.1613310000000006</v>
       </c>
       <c r="M15" s="1">
-        <v>1195.690000</v>
+        <v>1195.69</v>
       </c>
       <c r="N15" s="1">
-        <v>-147.512000</v>
+        <v>-147.512</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>32991.250977</v>
+        <v>32991.250977000003</v>
       </c>
       <c r="Q15" s="1">
-        <v>9.164236</v>
+        <v>9.1642360000000007</v>
       </c>
       <c r="R15" s="1">
-        <v>1204.790000</v>
+        <v>1204.79</v>
       </c>
       <c r="S15" s="1">
-        <v>-127.166000</v>
+        <v>-127.166</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>33002.035026</v>
+        <v>33002.035025999998</v>
       </c>
       <c r="V15" s="1">
-        <v>9.167232</v>
+        <v>9.1672320000000003</v>
       </c>
       <c r="W15" s="1">
-        <v>1213.340000</v>
+        <v>1213.3399999999999</v>
       </c>
       <c r="X15" s="1">
-        <v>-107.168000</v>
+        <v>-107.16800000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>33012.923668</v>
+        <v>33012.923668000003</v>
       </c>
       <c r="AA15" s="1">
-        <v>9.170257</v>
+        <v>9.1702569999999994</v>
       </c>
       <c r="AB15" s="1">
-        <v>1222.050000</v>
+        <v>1222.05</v>
       </c>
       <c r="AC15" s="1">
-        <v>-90.997600</v>
+        <v>-90.997600000000006</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>33023.415578</v>
@@ -3912,1161 +4328,1161 @@
         <v>9.173171</v>
       </c>
       <c r="AG15" s="1">
-        <v>1227.140000</v>
+        <v>1227.1400000000001</v>
       </c>
       <c r="AH15" s="1">
-        <v>-86.255600</v>
+        <v>-86.255600000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>33033.929272</v>
+        <v>33033.929272000001</v>
       </c>
       <c r="AK15" s="1">
-        <v>9.176091</v>
+        <v>9.1760909999999996</v>
       </c>
       <c r="AL15" s="1">
-        <v>1234.570000</v>
+        <v>1234.57</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.551900</v>
+        <v>-89.551900000000003</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>33044.702841</v>
+        <v>33044.702840999998</v>
       </c>
       <c r="AP15" s="1">
-        <v>9.179084</v>
+        <v>9.1790839999999996</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1242.540000</v>
+        <v>1242.54</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.441000</v>
+        <v>-101.441</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>33055.422379</v>
+        <v>33055.422379000003</v>
       </c>
       <c r="AU15" s="1">
-        <v>9.182062</v>
+        <v>9.1820620000000002</v>
       </c>
       <c r="AV15" s="1">
-        <v>1252.450000</v>
+        <v>1252.45</v>
       </c>
       <c r="AW15" s="1">
-        <v>-120.773000</v>
+        <v>-120.773</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>33066.207421</v>
+        <v>33066.207420999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>9.185058</v>
+        <v>9.1850579999999997</v>
       </c>
       <c r="BA15" s="1">
-        <v>1260.810000</v>
+        <v>1260.81</v>
       </c>
       <c r="BB15" s="1">
-        <v>-138.315000</v>
+        <v>-138.315</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>33077.101538</v>
+        <v>33077.101538000003</v>
       </c>
       <c r="BE15" s="1">
-        <v>9.188084</v>
+        <v>9.1880839999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1300.490000</v>
+        <v>1300.49</v>
       </c>
       <c r="BG15" s="1">
-        <v>-220.685000</v>
+        <v>-220.685</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>33087.634562</v>
+        <v>33087.634561999999</v>
       </c>
       <c r="BJ15" s="1">
-        <v>9.191010</v>
+        <v>9.1910100000000003</v>
       </c>
       <c r="BK15" s="1">
-        <v>1369.450000</v>
+        <v>1369.45</v>
       </c>
       <c r="BL15" s="1">
-        <v>-358.473000</v>
+        <v>-358.47300000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>33098.340210</v>
+        <v>33098.340210000002</v>
       </c>
       <c r="BO15" s="1">
-        <v>9.193983</v>
+        <v>9.1939829999999994</v>
       </c>
       <c r="BP15" s="1">
-        <v>1482.900000</v>
+        <v>1482.9</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-583.882000</v>
+        <v>-583.88199999999995</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>33108.855926</v>
+        <v>33108.855925999997</v>
       </c>
       <c r="BT15" s="1">
         <v>9.196904</v>
       </c>
       <c r="BU15" s="1">
-        <v>1614.540000</v>
+        <v>1614.54</v>
       </c>
       <c r="BV15" s="1">
-        <v>-839.745000</v>
+        <v>-839.745</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>33119.733690</v>
+        <v>33119.733690000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>9.199926</v>
+        <v>9.1999259999999996</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1766.310000</v>
+        <v>1766.31</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1117.810000</v>
+        <v>-1117.81</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>33132.076598</v>
       </c>
       <c r="CD15" s="1">
-        <v>9.203355</v>
+        <v>9.2033550000000002</v>
       </c>
       <c r="CE15" s="1">
-        <v>2187.790000</v>
+        <v>2187.79</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1796.820000</v>
+        <v>-1796.82</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>32960.241594</v>
+        <v>32960.241593999999</v>
       </c>
       <c r="B16" s="1">
-        <v>9.155623</v>
+        <v>9.1556230000000003</v>
       </c>
       <c r="C16" s="1">
-        <v>1143.920000</v>
+        <v>1143.92</v>
       </c>
       <c r="D16" s="1">
-        <v>-241.931000</v>
+        <v>-241.93100000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>32970.693292</v>
+        <v>32970.693292000004</v>
       </c>
       <c r="G16" s="1">
-        <v>9.158526</v>
+        <v>9.1585260000000002</v>
       </c>
       <c r="H16" s="1">
-        <v>1165.800000</v>
+        <v>1165.8</v>
       </c>
       <c r="I16" s="1">
-        <v>-206.947000</v>
+        <v>-206.947</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>32981.450030</v>
+        <v>32981.45003</v>
       </c>
       <c r="L16" s="1">
-        <v>9.161514</v>
+        <v>9.1615140000000004</v>
       </c>
       <c r="M16" s="1">
-        <v>1195.580000</v>
+        <v>1195.58</v>
       </c>
       <c r="N16" s="1">
-        <v>-147.946000</v>
+        <v>-147.946</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>32991.906689</v>
+        <v>32991.906689000003</v>
       </c>
       <c r="Q16" s="1">
-        <v>9.164419</v>
+        <v>9.1644190000000005</v>
       </c>
       <c r="R16" s="1">
-        <v>1204.820000</v>
+        <v>1204.82</v>
       </c>
       <c r="S16" s="1">
-        <v>-127.220000</v>
+        <v>-127.22</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>33002.414465</v>
+        <v>33002.414465000002</v>
       </c>
       <c r="V16" s="1">
-        <v>9.167337</v>
+        <v>9.1673369999999998</v>
       </c>
       <c r="W16" s="1">
-        <v>1213.470000</v>
+        <v>1213.47</v>
       </c>
       <c r="X16" s="1">
-        <v>-107.249000</v>
+        <v>-107.249</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>33013.270867</v>
+        <v>33013.270866999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>9.170353</v>
+        <v>9.1703530000000004</v>
       </c>
       <c r="AB16" s="1">
-        <v>1222.100000</v>
+        <v>1222.0999999999999</v>
       </c>
       <c r="AC16" s="1">
-        <v>-90.749900</v>
+        <v>-90.749899999999997</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>33023.758775</v>
+        <v>33023.758775000002</v>
       </c>
       <c r="AF16" s="1">
-        <v>9.173266</v>
+        <v>9.1732659999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1227.110000</v>
+        <v>1227.1099999999999</v>
       </c>
       <c r="AH16" s="1">
-        <v>-86.208700</v>
+        <v>-86.208699999999993</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>33034.277954</v>
+        <v>33034.277953999997</v>
       </c>
       <c r="AK16" s="1">
-        <v>9.176188</v>
+        <v>9.1761879999999998</v>
       </c>
       <c r="AL16" s="1">
-        <v>1234.510000</v>
+        <v>1234.51</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.546300</v>
+        <v>-89.546300000000002</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>33045.123449</v>
+        <v>33045.123448999999</v>
       </c>
       <c r="AP16" s="1">
-        <v>9.179201</v>
+        <v>9.1792010000000008</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1242.540000</v>
+        <v>1242.54</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.472000</v>
+        <v>-101.47199999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>33055.837314</v>
+        <v>33055.837313999997</v>
       </c>
       <c r="AU16" s="1">
-        <v>9.182177</v>
+        <v>9.1821769999999994</v>
       </c>
       <c r="AV16" s="1">
-        <v>1252.470000</v>
+        <v>1252.47</v>
       </c>
       <c r="AW16" s="1">
-        <v>-120.792000</v>
+        <v>-120.792</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>33066.507965</v>
+        <v>33066.507964999997</v>
       </c>
       <c r="AZ16" s="1">
-        <v>9.185141</v>
+        <v>9.1851409999999998</v>
       </c>
       <c r="BA16" s="1">
-        <v>1260.820000</v>
+        <v>1260.82</v>
       </c>
       <c r="BB16" s="1">
-        <v>-138.313000</v>
+        <v>-138.31299999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>33077.478514</v>
+        <v>33077.478514000002</v>
       </c>
       <c r="BE16" s="1">
-        <v>9.188188</v>
+        <v>9.1881880000000002</v>
       </c>
       <c r="BF16" s="1">
-        <v>1300.500000</v>
+        <v>1300.5</v>
       </c>
       <c r="BG16" s="1">
-        <v>-220.671000</v>
+        <v>-220.67099999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>33088.009041</v>
+        <v>33088.009040999998</v>
       </c>
       <c r="BJ16" s="1">
-        <v>9.191114</v>
+        <v>9.1911140000000007</v>
       </c>
       <c r="BK16" s="1">
-        <v>1369.390000</v>
+        <v>1369.39</v>
       </c>
       <c r="BL16" s="1">
-        <v>-358.455000</v>
+        <v>-358.45499999999998</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>33098.737042</v>
+        <v>33098.737042000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>9.194094</v>
+        <v>9.1940939999999998</v>
       </c>
       <c r="BP16" s="1">
-        <v>1482.880000</v>
+        <v>1482.88</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-583.848000</v>
+        <v>-583.84799999999996</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>33109.268069</v>
+        <v>33109.268068999998</v>
       </c>
       <c r="BT16" s="1">
-        <v>9.197019</v>
+        <v>9.1970189999999992</v>
       </c>
       <c r="BU16" s="1">
-        <v>1614.370000</v>
+        <v>1614.37</v>
       </c>
       <c r="BV16" s="1">
-        <v>-839.699000</v>
+        <v>-839.69899999999996</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>33120.179559</v>
+        <v>33120.179558999997</v>
       </c>
       <c r="BY16" s="1">
-        <v>9.200050</v>
+        <v>9.2000499999999992</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1766.400000</v>
+        <v>1766.4</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1117.790000</v>
+        <v>-1117.79</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>33132.618725</v>
       </c>
       <c r="CD16" s="1">
-        <v>9.203505</v>
+        <v>9.2035049999999998</v>
       </c>
       <c r="CE16" s="1">
-        <v>2186.050000</v>
+        <v>2186.0500000000002</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1794.470000</v>
+        <v>-1794.47</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>32960.885898</v>
       </c>
       <c r="B17" s="1">
-        <v>9.155802</v>
+        <v>9.1558019999999996</v>
       </c>
       <c r="C17" s="1">
-        <v>1143.910000</v>
+        <v>1143.9100000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-241.936000</v>
+        <v>-241.93600000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>32971.349002</v>
+        <v>32971.349002000003</v>
       </c>
       <c r="G17" s="1">
-        <v>9.158708</v>
+        <v>9.1587080000000007</v>
       </c>
       <c r="H17" s="1">
-        <v>1166.190000</v>
+        <v>1166.19</v>
       </c>
       <c r="I17" s="1">
-        <v>-206.500000</v>
+        <v>-206.5</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>32981.829965</v>
+        <v>32981.829964999997</v>
       </c>
       <c r="L17" s="1">
         <v>9.161619</v>
       </c>
       <c r="M17" s="1">
-        <v>1195.640000</v>
+        <v>1195.6400000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-147.603000</v>
+        <v>-147.60300000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>32992.291087</v>
+        <v>32992.291086999998</v>
       </c>
       <c r="Q17" s="1">
-        <v>9.164525</v>
+        <v>9.1645249999999994</v>
       </c>
       <c r="R17" s="1">
-        <v>1204.810000</v>
+        <v>1204.81</v>
       </c>
       <c r="S17" s="1">
-        <v>-127.204000</v>
+        <v>-127.20399999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>33002.757205</v>
+        <v>33002.757205000002</v>
       </c>
       <c r="V17" s="1">
-        <v>9.167433</v>
+        <v>9.1674330000000008</v>
       </c>
       <c r="W17" s="1">
-        <v>1213.310000</v>
+        <v>1213.31</v>
       </c>
       <c r="X17" s="1">
-        <v>-107.310000</v>
+        <v>-107.31</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>33013.616579</v>
+        <v>33013.616579000001</v>
       </c>
       <c r="AA17" s="1">
-        <v>9.170449</v>
+        <v>9.1704489999999996</v>
       </c>
       <c r="AB17" s="1">
-        <v>1222.000000</v>
+        <v>1222</v>
       </c>
       <c r="AC17" s="1">
-        <v>-90.845900</v>
+        <v>-90.8459</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>33024.102996</v>
+        <v>33024.102996000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>9.173362</v>
+        <v>9.1733619999999991</v>
       </c>
       <c r="AG17" s="1">
-        <v>1227.130000</v>
+        <v>1227.1300000000001</v>
       </c>
       <c r="AH17" s="1">
-        <v>-86.255500</v>
+        <v>-86.255499999999998</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>33034.691096</v>
+        <v>33034.691096000002</v>
       </c>
       <c r="AK17" s="1">
-        <v>9.176303</v>
+        <v>9.1763030000000008</v>
       </c>
       <c r="AL17" s="1">
-        <v>1234.490000</v>
+        <v>1234.49</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.559400</v>
+        <v>-89.559399999999997</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>33045.426505</v>
+        <v>33045.426505000003</v>
       </c>
       <c r="AP17" s="1">
-        <v>9.179285</v>
+        <v>9.1792850000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1242.500000</v>
+        <v>1242.5</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.434000</v>
+        <v>-101.434</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>33056.147563</v>
+        <v>33056.147562999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>9.182263</v>
+        <v>9.1822630000000007</v>
       </c>
       <c r="AV17" s="1">
-        <v>1252.450000</v>
+        <v>1252.45</v>
       </c>
       <c r="AW17" s="1">
-        <v>-120.775000</v>
+        <v>-120.77500000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>33066.865085</v>
+        <v>33066.865084999998</v>
       </c>
       <c r="AZ17" s="1">
-        <v>9.185240</v>
+        <v>9.1852400000000003</v>
       </c>
       <c r="BA17" s="1">
-        <v>1260.850000</v>
+        <v>1260.8499999999999</v>
       </c>
       <c r="BB17" s="1">
-        <v>-138.305000</v>
+        <v>-138.30500000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>33077.842543</v>
+        <v>33077.842542999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>9.188290</v>
+        <v>9.1882900000000003</v>
       </c>
       <c r="BF17" s="1">
-        <v>1300.480000</v>
+        <v>1300.48</v>
       </c>
       <c r="BG17" s="1">
-        <v>-220.682000</v>
+        <v>-220.68199999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>33088.386992</v>
       </c>
       <c r="BJ17" s="1">
-        <v>9.191219</v>
+        <v>9.1912190000000002</v>
       </c>
       <c r="BK17" s="1">
-        <v>1369.440000</v>
+        <v>1369.44</v>
       </c>
       <c r="BL17" s="1">
-        <v>-358.429000</v>
+        <v>-358.42899999999997</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>33099.159105</v>
+        <v>33099.159104999999</v>
       </c>
       <c r="BO17" s="1">
-        <v>9.194211</v>
+        <v>9.1942109999999992</v>
       </c>
       <c r="BP17" s="1">
-        <v>1482.900000</v>
+        <v>1482.9</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-583.842000</v>
+        <v>-583.84199999999998</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>33109.705541</v>
+        <v>33109.705541000003</v>
       </c>
       <c r="BT17" s="1">
-        <v>9.197140</v>
+        <v>9.1971399999999992</v>
       </c>
       <c r="BU17" s="1">
-        <v>1614.360000</v>
+        <v>1614.36</v>
       </c>
       <c r="BV17" s="1">
-        <v>-839.755000</v>
+        <v>-839.755</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>33120.613061</v>
+        <v>33120.613060999996</v>
       </c>
       <c r="BY17" s="1">
-        <v>9.200170</v>
+        <v>9.20017</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1766.210000</v>
+        <v>1766.21</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1117.720000</v>
+        <v>-1117.72</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>33133.160853</v>
+        <v>33133.160853000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>9.203656</v>
+        <v>9.2036560000000005</v>
       </c>
       <c r="CE17" s="1">
-        <v>2185.790000</v>
+        <v>2185.79</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1796.800000</v>
+        <v>-1796.8</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>32961.268845</v>
+        <v>32961.268844999999</v>
       </c>
       <c r="B18" s="1">
-        <v>9.155908</v>
+        <v>9.1559080000000002</v>
       </c>
       <c r="C18" s="1">
-        <v>1144.140000</v>
+        <v>1144.1400000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-241.984000</v>
+        <v>-241.98400000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>32971.730954</v>
+        <v>32971.730953999999</v>
       </c>
       <c r="G18" s="1">
-        <v>9.158814</v>
+        <v>9.1588139999999996</v>
       </c>
       <c r="H18" s="1">
-        <v>1165.600000</v>
+        <v>1165.5999999999999</v>
       </c>
       <c r="I18" s="1">
-        <v>-206.811000</v>
+        <v>-206.81100000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>32982.174188</v>
+        <v>32982.174187999997</v>
       </c>
       <c r="L18" s="1">
-        <v>9.161715</v>
+        <v>9.1617149999999992</v>
       </c>
       <c r="M18" s="1">
-        <v>1195.470000</v>
+        <v>1195.47</v>
       </c>
       <c r="N18" s="1">
-        <v>-147.713000</v>
+        <v>-147.71299999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>32992.644238</v>
+        <v>32992.644238000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>9.164623</v>
+        <v>9.1646230000000006</v>
       </c>
       <c r="R18" s="1">
-        <v>1204.790000</v>
+        <v>1204.79</v>
       </c>
       <c r="S18" s="1">
-        <v>-127.214000</v>
+        <v>-127.214</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>33003.101393</v>
+        <v>33003.101392999997</v>
       </c>
       <c r="V18" s="1">
-        <v>9.167528</v>
+        <v>9.1675280000000008</v>
       </c>
       <c r="W18" s="1">
-        <v>1213.430000</v>
+        <v>1213.43</v>
       </c>
       <c r="X18" s="1">
-        <v>-107.219000</v>
+        <v>-107.21899999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>33014.034210</v>
+        <v>33014.034209999998</v>
       </c>
       <c r="AA18" s="1">
-        <v>9.170565</v>
+        <v>9.1705649999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1222.230000</v>
+        <v>1222.23</v>
       </c>
       <c r="AC18" s="1">
-        <v>-90.620100</v>
+        <v>-90.620099999999994</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>33024.533560</v>
+        <v>33024.533560000003</v>
       </c>
       <c r="AF18" s="1">
-        <v>9.173482</v>
+        <v>9.1734819999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>1227.180000</v>
+        <v>1227.18</v>
       </c>
       <c r="AH18" s="1">
-        <v>-86.191000</v>
+        <v>-86.191000000000003</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>33034.985255</v>
       </c>
       <c r="AK18" s="1">
-        <v>9.176385</v>
+        <v>9.1763849999999998</v>
       </c>
       <c r="AL18" s="1">
-        <v>1234.500000</v>
+        <v>1234.5</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.560200</v>
+        <v>-89.560199999999995</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>33045.784617</v>
+        <v>33045.784616999998</v>
       </c>
       <c r="AP18" s="1">
-        <v>9.179385</v>
+        <v>9.1793849999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1242.510000</v>
+        <v>1242.51</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.479000</v>
+        <v>-101.479</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>33056.514074</v>
+        <v>33056.514073999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>9.182365</v>
+        <v>9.1823650000000008</v>
       </c>
       <c r="AV18" s="1">
-        <v>1252.440000</v>
+        <v>1252.44</v>
       </c>
       <c r="AW18" s="1">
-        <v>-120.821000</v>
+        <v>-120.821</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>33067.223691</v>
+        <v>33067.223690999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>9.185340</v>
+        <v>9.1853400000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1260.820000</v>
+        <v>1260.82</v>
       </c>
       <c r="BB18" s="1">
-        <v>-138.308000</v>
+        <v>-138.30799999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>33078.562269</v>
+        <v>33078.562269000002</v>
       </c>
       <c r="BE18" s="1">
-        <v>9.188490</v>
+        <v>9.1884899999999998</v>
       </c>
       <c r="BF18" s="1">
-        <v>1300.500000</v>
+        <v>1300.5</v>
       </c>
       <c r="BG18" s="1">
-        <v>-220.701000</v>
+        <v>-220.70099999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>33089.138463</v>
+        <v>33089.138463000003</v>
       </c>
       <c r="BJ18" s="1">
-        <v>9.191427</v>
+        <v>9.1914269999999991</v>
       </c>
       <c r="BK18" s="1">
-        <v>1369.430000</v>
+        <v>1369.43</v>
       </c>
       <c r="BL18" s="1">
-        <v>-358.478000</v>
+        <v>-358.47800000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>33099.553957</v>
+        <v>33099.553956999996</v>
       </c>
       <c r="BO18" s="1">
-        <v>9.194321</v>
+        <v>9.1943210000000004</v>
       </c>
       <c r="BP18" s="1">
-        <v>1482.930000</v>
+        <v>1482.93</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-583.858000</v>
+        <v>-583.85799999999995</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>33110.098875</v>
+        <v>33110.098875000003</v>
       </c>
       <c r="BT18" s="1">
-        <v>9.197250</v>
+        <v>9.1972500000000004</v>
       </c>
       <c r="BU18" s="1">
-        <v>1614.220000</v>
+        <v>1614.22</v>
       </c>
       <c r="BV18" s="1">
-        <v>-839.723000</v>
+        <v>-839.72299999999996</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>33121.070869</v>
+        <v>33121.070869000003</v>
       </c>
       <c r="BY18" s="1">
-        <v>9.200297</v>
+        <v>9.2002970000000008</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1766.510000</v>
+        <v>1766.51</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1117.810000</v>
+        <v>-1117.81</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>33134.003588</v>
       </c>
       <c r="CD18" s="1">
-        <v>9.203890</v>
+        <v>9.2038899999999995</v>
       </c>
       <c r="CE18" s="1">
-        <v>2185.820000</v>
+        <v>2185.8200000000002</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1795.140000</v>
+        <v>-1795.14</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>32961.611552</v>
+        <v>32961.611552000002</v>
       </c>
       <c r="B19" s="1">
-        <v>9.156003</v>
+        <v>9.1560030000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1144.220000</v>
+        <v>1144.22</v>
       </c>
       <c r="D19" s="1">
-        <v>-242.120000</v>
+        <v>-242.12</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>32972.073689</v>
+        <v>32972.073688999997</v>
       </c>
       <c r="G19" s="1">
-        <v>9.158909</v>
+        <v>9.1589089999999995</v>
       </c>
       <c r="H19" s="1">
-        <v>1165.210000</v>
+        <v>1165.21</v>
       </c>
       <c r="I19" s="1">
-        <v>-206.695000</v>
+        <v>-206.69499999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>32982.519403</v>
+        <v>32982.519402999998</v>
       </c>
       <c r="L19" s="1">
-        <v>9.161811</v>
+        <v>9.1618110000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1195.940000</v>
+        <v>1195.94</v>
       </c>
       <c r="N19" s="1">
-        <v>-147.713000</v>
+        <v>-147.71299999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>32993.232035</v>
+        <v>32993.232035000001</v>
       </c>
       <c r="Q19" s="1">
-        <v>9.164787</v>
+        <v>9.1647870000000005</v>
       </c>
       <c r="R19" s="1">
-        <v>1204.760000</v>
+        <v>1204.76</v>
       </c>
       <c r="S19" s="1">
-        <v>-127.172000</v>
+        <v>-127.172</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>33003.532417</v>
+        <v>33003.532417000002</v>
       </c>
       <c r="V19" s="1">
-        <v>9.167648</v>
+        <v>9.1676479999999998</v>
       </c>
       <c r="W19" s="1">
-        <v>1213.410000</v>
+        <v>1213.4100000000001</v>
       </c>
       <c r="X19" s="1">
-        <v>-107.332000</v>
+        <v>-107.33199999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>33014.314947</v>
+        <v>33014.314946999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>9.170643</v>
+        <v>9.1706430000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>1222.140000</v>
+        <v>1222.1400000000001</v>
       </c>
       <c r="AC19" s="1">
-        <v>-90.711200</v>
+        <v>-90.711200000000005</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>33024.812277</v>
+        <v>33024.812276999997</v>
       </c>
       <c r="AF19" s="1">
-        <v>9.173559</v>
+        <v>9.1735589999999991</v>
       </c>
       <c r="AG19" s="1">
-        <v>1227.120000</v>
+        <v>1227.1199999999999</v>
       </c>
       <c r="AH19" s="1">
-        <v>-86.198700</v>
+        <v>-86.198700000000002</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>33035.335399</v>
+        <v>33035.335399000003</v>
       </c>
       <c r="AK19" s="1">
         <v>9.176482</v>
       </c>
       <c r="AL19" s="1">
-        <v>1234.510000</v>
+        <v>1234.51</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.530300</v>
+        <v>-89.530299999999997</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>33046.144724</v>
+        <v>33046.144723999998</v>
       </c>
       <c r="AP19" s="1">
-        <v>9.179485</v>
+        <v>9.1794849999999997</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1242.520000</v>
+        <v>1242.52</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.457000</v>
+        <v>-101.45699999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>33056.876189</v>
+        <v>33056.876189000002</v>
       </c>
       <c r="AU19" s="1">
-        <v>9.182466</v>
+        <v>9.1824659999999998</v>
       </c>
       <c r="AV19" s="1">
-        <v>1252.450000</v>
+        <v>1252.45</v>
       </c>
       <c r="AW19" s="1">
-        <v>-120.797000</v>
+        <v>-120.797</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>33067.942394</v>
+        <v>33067.942393999998</v>
       </c>
       <c r="AZ19" s="1">
-        <v>9.185540</v>
+        <v>9.1855399999999996</v>
       </c>
       <c r="BA19" s="1">
-        <v>1260.830000</v>
+        <v>1260.83</v>
       </c>
       <c r="BB19" s="1">
-        <v>-138.307000</v>
+        <v>-138.30699999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>33078.951928</v>
+        <v>33078.951928000002</v>
       </c>
       <c r="BE19" s="1">
-        <v>9.188598</v>
+        <v>9.1885980000000007</v>
       </c>
       <c r="BF19" s="1">
-        <v>1300.520000</v>
+        <v>1300.52</v>
       </c>
       <c r="BG19" s="1">
-        <v>-220.709000</v>
+        <v>-220.709</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>33089.512949</v>
+        <v>33089.512949000004</v>
       </c>
       <c r="BJ19" s="1">
-        <v>9.191531</v>
+        <v>9.1915309999999995</v>
       </c>
       <c r="BK19" s="1">
-        <v>1369.440000</v>
+        <v>1369.44</v>
       </c>
       <c r="BL19" s="1">
-        <v>-358.480000</v>
+        <v>-358.48</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>33099.975056</v>
+        <v>33099.975056000003</v>
       </c>
       <c r="BO19" s="1">
-        <v>9.194438</v>
+        <v>9.1944379999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1482.910000</v>
+        <v>1482.91</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-583.845000</v>
+        <v>-583.84500000000003</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>33110.820547</v>
+        <v>33110.820547000003</v>
       </c>
       <c r="BT19" s="1">
-        <v>9.197450</v>
+        <v>9.1974499999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1614.260000</v>
+        <v>1614.26</v>
       </c>
       <c r="BV19" s="1">
-        <v>-839.717000</v>
+        <v>-839.71699999999998</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>33121.826276</v>
@@ -5075,150 +5491,150 @@
         <v>9.200507</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1766.410000</v>
+        <v>1766.41</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1117.820000</v>
+        <v>-1117.82</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>33134.238163</v>
+        <v>33134.238163000002</v>
       </c>
       <c r="CD19" s="1">
-        <v>9.203955</v>
+        <v>9.2039550000000006</v>
       </c>
       <c r="CE19" s="1">
-        <v>2185.870000</v>
+        <v>2185.87</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1795.050000</v>
+        <v>-1795.05</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>32961.952823</v>
       </c>
       <c r="B20" s="1">
-        <v>9.156098</v>
+        <v>9.1560980000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1143.930000</v>
+        <v>1143.93</v>
       </c>
       <c r="D20" s="1">
-        <v>-242.048000</v>
+        <v>-242.048</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>32972.419892</v>
+        <v>32972.419891999998</v>
       </c>
       <c r="G20" s="1">
-        <v>9.159006</v>
+        <v>9.1590059999999998</v>
       </c>
       <c r="H20" s="1">
-        <v>1165.610000</v>
+        <v>1165.6099999999999</v>
       </c>
       <c r="I20" s="1">
-        <v>-206.632000</v>
+        <v>-206.63200000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>32982.943484</v>
+        <v>32982.943484000003</v>
       </c>
       <c r="L20" s="1">
-        <v>9.161929</v>
+        <v>9.1619290000000007</v>
       </c>
       <c r="M20" s="1">
-        <v>1195.890000</v>
+        <v>1195.8900000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-147.770000</v>
+        <v>-147.77000000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>32993.344093</v>
       </c>
       <c r="Q20" s="1">
-        <v>9.164818</v>
+        <v>9.1648180000000004</v>
       </c>
       <c r="R20" s="1">
-        <v>1204.730000</v>
+        <v>1204.73</v>
       </c>
       <c r="S20" s="1">
-        <v>-127.186000</v>
+        <v>-127.18600000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>33003.813649</v>
+        <v>33003.813649000003</v>
       </c>
       <c r="V20" s="1">
         <v>9.167726</v>
       </c>
       <c r="W20" s="1">
-        <v>1213.400000</v>
+        <v>1213.4000000000001</v>
       </c>
       <c r="X20" s="1">
-        <v>-107.141000</v>
+        <v>-107.14100000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>33014.663633</v>
+        <v>33014.663632999996</v>
       </c>
       <c r="AA20" s="1">
-        <v>9.170740</v>
+        <v>9.1707400000000003</v>
       </c>
       <c r="AB20" s="1">
-        <v>1222.110000</v>
+        <v>1222.1099999999999</v>
       </c>
       <c r="AC20" s="1">
-        <v>-90.938500</v>
+        <v>-90.938500000000005</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>33025.156734</v>
+        <v>33025.156733999997</v>
       </c>
       <c r="AF20" s="1">
-        <v>9.173655</v>
+        <v>9.1736550000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>1227.170000</v>
+        <v>1227.17</v>
       </c>
       <c r="AH20" s="1">
-        <v>-86.214300</v>
+        <v>-86.214299999999994</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>33035.684613</v>
+        <v>33035.684612999998</v>
       </c>
       <c r="AK20" s="1">
-        <v>9.176579</v>
+        <v>9.1765790000000003</v>
       </c>
       <c r="AL20" s="1">
-        <v>1234.540000</v>
+        <v>1234.54</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.575500</v>
+        <v>-89.575500000000005</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>33046.863415</v>
@@ -5227,375 +5643,375 @@
         <v>9.179684</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1242.520000</v>
+        <v>1242.52</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.455000</v>
+        <v>-101.455</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>33057.607752</v>
+        <v>33057.607752000004</v>
       </c>
       <c r="AU20" s="1">
-        <v>9.182669</v>
+        <v>9.1826690000000006</v>
       </c>
       <c r="AV20" s="1">
-        <v>1252.440000</v>
+        <v>1252.44</v>
       </c>
       <c r="AW20" s="1">
-        <v>-120.779000</v>
+        <v>-120.779</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>33068.301500</v>
+        <v>33068.301500000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>9.185639</v>
+        <v>9.1856390000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1260.820000</v>
+        <v>1260.82</v>
       </c>
       <c r="BB20" s="1">
-        <v>-138.308000</v>
+        <v>-138.30799999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>33079.331036</v>
+        <v>33079.331036000003</v>
       </c>
       <c r="BE20" s="1">
-        <v>9.188703</v>
+        <v>9.1887030000000003</v>
       </c>
       <c r="BF20" s="1">
-        <v>1300.530000</v>
+        <v>1300.53</v>
       </c>
       <c r="BG20" s="1">
-        <v>-220.677000</v>
+        <v>-220.67699999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>33089.886926</v>
+        <v>33089.886925999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>9.191635</v>
+        <v>9.1916349999999998</v>
       </c>
       <c r="BK20" s="1">
-        <v>1369.430000</v>
+        <v>1369.43</v>
       </c>
       <c r="BL20" s="1">
-        <v>-358.428000</v>
+        <v>-358.428</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>33100.672400</v>
+        <v>33100.672400000003</v>
       </c>
       <c r="BO20" s="1">
-        <v>9.194631</v>
+        <v>9.1946309999999993</v>
       </c>
       <c r="BP20" s="1">
-        <v>1482.920000</v>
+        <v>1482.92</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-583.809000</v>
+        <v>-583.80899999999997</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>33110.929171</v>
+        <v>33110.929171000003</v>
       </c>
       <c r="BT20" s="1">
-        <v>9.197480</v>
+        <v>9.1974800000000005</v>
       </c>
       <c r="BU20" s="1">
-        <v>1614.030000</v>
+        <v>1614.03</v>
       </c>
       <c r="BV20" s="1">
-        <v>-839.710000</v>
+        <v>-839.71</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>33121.968627</v>
+        <v>33121.968627000002</v>
       </c>
       <c r="BY20" s="1">
-        <v>9.200547</v>
+        <v>9.2005470000000003</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1766.400000</v>
+        <v>1766.4</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1117.580000</v>
+        <v>-1117.58</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>33134.758500</v>
+        <v>33134.758500000004</v>
       </c>
       <c r="CD20" s="1">
-        <v>9.204100</v>
+        <v>9.2041000000000004</v>
       </c>
       <c r="CE20" s="1">
-        <v>2185.440000</v>
+        <v>2185.44</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1797.050000</v>
+        <v>-1797.05</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>32962.372902</v>
+        <v>32962.372902000003</v>
       </c>
       <c r="B21" s="1">
-        <v>9.156215</v>
+        <v>9.1562149999999995</v>
       </c>
       <c r="C21" s="1">
-        <v>1144.170000</v>
+        <v>1144.17</v>
       </c>
       <c r="D21" s="1">
-        <v>-241.968000</v>
+        <v>-241.96799999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>32972.833038</v>
+        <v>32972.833037999997</v>
       </c>
       <c r="G21" s="1">
-        <v>9.159120</v>
+        <v>9.1591199999999997</v>
       </c>
       <c r="H21" s="1">
-        <v>1165.190000</v>
+        <v>1165.19</v>
       </c>
       <c r="I21" s="1">
-        <v>-207.352000</v>
+        <v>-207.352</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>32983.210475</v>
       </c>
       <c r="L21" s="1">
-        <v>9.162003</v>
+        <v>9.1620030000000003</v>
       </c>
       <c r="M21" s="1">
-        <v>1195.580000</v>
+        <v>1195.58</v>
       </c>
       <c r="N21" s="1">
-        <v>-147.687000</v>
+        <v>-147.68700000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>32993.688813</v>
+        <v>32993.688813000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>9.164914</v>
+        <v>9.1649139999999996</v>
       </c>
       <c r="R21" s="1">
-        <v>1204.790000</v>
+        <v>1204.79</v>
       </c>
       <c r="S21" s="1">
-        <v>-127.150000</v>
+        <v>-127.15</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>33004.154399</v>
+        <v>33004.154398999999</v>
       </c>
       <c r="V21" s="1">
         <v>9.167821</v>
       </c>
       <c r="W21" s="1">
-        <v>1213.410000</v>
+        <v>1213.4100000000001</v>
       </c>
       <c r="X21" s="1">
-        <v>-107.327000</v>
+        <v>-107.327</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>33015.014336</v>
       </c>
       <c r="AA21" s="1">
-        <v>9.170837</v>
+        <v>9.1708370000000006</v>
       </c>
       <c r="AB21" s="1">
-        <v>1222.170000</v>
+        <v>1222.17</v>
       </c>
       <c r="AC21" s="1">
-        <v>-90.656300</v>
+        <v>-90.656300000000002</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>33025.499235</v>
+        <v>33025.499235000003</v>
       </c>
       <c r="AF21" s="1">
-        <v>9.173750</v>
+        <v>9.1737500000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1227.120000</v>
+        <v>1227.1199999999999</v>
       </c>
       <c r="AH21" s="1">
-        <v>-86.255900</v>
+        <v>-86.255899999999997</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>33036.380507</v>
+        <v>33036.380507000002</v>
       </c>
       <c r="AK21" s="1">
-        <v>9.176772</v>
+        <v>9.1767719999999997</v>
       </c>
       <c r="AL21" s="1">
-        <v>1234.520000</v>
+        <v>1234.52</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.548300</v>
+        <v>-89.548299999999998</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>33047.225495</v>
+        <v>33047.225494999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>9.179785</v>
+        <v>9.1797850000000007</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1242.500000</v>
+        <v>1242.5</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.439000</v>
+        <v>-101.43899999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>33058.000088</v>
+        <v>33058.000088000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>9.182778</v>
+        <v>9.1827780000000008</v>
       </c>
       <c r="AV21" s="1">
-        <v>1252.420000</v>
+        <v>1252.42</v>
       </c>
       <c r="AW21" s="1">
-        <v>-120.781000</v>
+        <v>-120.78100000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>33068.660603</v>
+        <v>33068.660602999997</v>
       </c>
       <c r="AZ21" s="1">
-        <v>9.185739</v>
+        <v>9.1857389999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1260.820000</v>
+        <v>1260.82</v>
       </c>
       <c r="BB21" s="1">
-        <v>-138.320000</v>
+        <v>-138.32</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>33080.008075</v>
+        <v>33080.008074999998</v>
       </c>
       <c r="BE21" s="1">
-        <v>9.188891</v>
+        <v>9.1888909999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1300.500000</v>
+        <v>1300.5</v>
       </c>
       <c r="BG21" s="1">
-        <v>-220.727000</v>
+        <v>-220.727</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>33090.569422</v>
       </c>
       <c r="BJ21" s="1">
-        <v>9.191825</v>
+        <v>9.1918249999999997</v>
       </c>
       <c r="BK21" s="1">
-        <v>1369.430000</v>
+        <v>1369.43</v>
       </c>
       <c r="BL21" s="1">
-        <v>-358.455000</v>
+        <v>-358.45499999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>33100.808800</v>
+        <v>33100.808799999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>9.194669</v>
+        <v>9.1946689999999993</v>
       </c>
       <c r="BP21" s="1">
-        <v>1482.880000</v>
+        <v>1482.88</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-583.805000</v>
+        <v>-583.80499999999995</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>33111.363202</v>
       </c>
       <c r="BT21" s="1">
-        <v>9.197601</v>
+        <v>9.1976010000000006</v>
       </c>
       <c r="BU21" s="1">
-        <v>1614.060000</v>
+        <v>1614.06</v>
       </c>
       <c r="BV21" s="1">
-        <v>-839.662000</v>
+        <v>-839.66200000000003</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>33122.391219</v>
+        <v>33122.391218999997</v>
       </c>
       <c r="BY21" s="1">
-        <v>9.200664</v>
+        <v>9.2006639999999997</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1766.480000</v>
+        <v>1766.48</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1117.700000</v>
+        <v>-1117.7</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>33135.274307</v>
@@ -5604,75 +6020,75 @@
         <v>9.204243</v>
       </c>
       <c r="CE21" s="1">
-        <v>2188.060000</v>
+        <v>2188.06</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1796.760000</v>
+        <v>-1796.76</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>32962.649211</v>
+        <v>32962.649211000004</v>
       </c>
       <c r="B22" s="1">
-        <v>9.156291</v>
+        <v>9.1562909999999995</v>
       </c>
       <c r="C22" s="1">
-        <v>1144.120000</v>
+        <v>1144.1199999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>-242.092000</v>
+        <v>-242.09200000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>32973.110793</v>
       </c>
       <c r="G22" s="1">
-        <v>9.159197</v>
+        <v>9.1591970000000007</v>
       </c>
       <c r="H22" s="1">
-        <v>1165.690000</v>
+        <v>1165.69</v>
       </c>
       <c r="I22" s="1">
-        <v>-206.912000</v>
+        <v>-206.91200000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>32983.556042</v>
+        <v>32983.556041999997</v>
       </c>
       <c r="L22" s="1">
-        <v>9.162099</v>
+        <v>9.1620989999999995</v>
       </c>
       <c r="M22" s="1">
-        <v>1195.460000</v>
+        <v>1195.46</v>
       </c>
       <c r="N22" s="1">
-        <v>-147.681000</v>
+        <v>-147.68100000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>32994.037502</v>
+        <v>32994.037501999999</v>
       </c>
       <c r="Q22" s="1">
-        <v>9.165010</v>
+        <v>9.1650100000000005</v>
       </c>
       <c r="R22" s="1">
-        <v>1204.790000</v>
+        <v>1204.79</v>
       </c>
       <c r="S22" s="1">
-        <v>-127.205000</v>
+        <v>-127.205</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>33004.498624</v>
@@ -5681,1223 +6097,1224 @@
         <v>9.167916</v>
       </c>
       <c r="W22" s="1">
-        <v>1213.310000</v>
+        <v>1213.31</v>
       </c>
       <c r="X22" s="1">
-        <v>-107.359000</v>
+        <v>-107.35899999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>33015.709696</v>
+        <v>33015.709695999998</v>
       </c>
       <c r="AA22" s="1">
-        <v>9.171030</v>
+        <v>9.17103</v>
       </c>
       <c r="AB22" s="1">
-        <v>1222.000000</v>
+        <v>1222</v>
       </c>
       <c r="AC22" s="1">
-        <v>-90.656000</v>
+        <v>-90.656000000000006</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>33026.189170</v>
+        <v>33026.189169999998</v>
       </c>
       <c r="AF22" s="1">
-        <v>9.173941</v>
+        <v>9.1739409999999992</v>
       </c>
       <c r="AG22" s="1">
-        <v>1227.190000</v>
+        <v>1227.19</v>
       </c>
       <c r="AH22" s="1">
-        <v>-86.217700</v>
+        <v>-86.217699999999994</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>33036.731140</v>
+        <v>33036.731140000004</v>
       </c>
       <c r="AK22" s="1">
-        <v>9.176870</v>
+        <v>9.1768699999999992</v>
       </c>
       <c r="AL22" s="1">
-        <v>1234.480000</v>
+        <v>1234.48</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.561800</v>
+        <v>-89.561800000000005</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>33047.584630</v>
+        <v>33047.584629999998</v>
       </c>
       <c r="AP22" s="1">
-        <v>9.179885</v>
+        <v>9.1798850000000005</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1242.520000</v>
+        <v>1242.52</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.458000</v>
+        <v>-101.458</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>33058.364648</v>
+        <v>33058.364648000002</v>
       </c>
       <c r="AU22" s="1">
-        <v>9.182879</v>
+        <v>9.1828789999999998</v>
       </c>
       <c r="AV22" s="1">
-        <v>1252.420000</v>
+        <v>1252.42</v>
       </c>
       <c r="AW22" s="1">
-        <v>-120.776000</v>
+        <v>-120.776</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>33069.322308</v>
+        <v>33069.322308000003</v>
       </c>
       <c r="AZ22" s="1">
-        <v>9.185923</v>
+        <v>9.1859230000000007</v>
       </c>
       <c r="BA22" s="1">
-        <v>1260.830000</v>
+        <v>1260.83</v>
       </c>
       <c r="BB22" s="1">
-        <v>-138.321000</v>
+        <v>-138.321</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>33080.414795</v>
+        <v>33080.414794999997</v>
       </c>
       <c r="BE22" s="1">
-        <v>9.189004</v>
+        <v>9.1890040000000006</v>
       </c>
       <c r="BF22" s="1">
-        <v>1300.510000</v>
+        <v>1300.51</v>
       </c>
       <c r="BG22" s="1">
-        <v>-220.710000</v>
+        <v>-220.71</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>33091.013805</v>
+        <v>33091.013805000002</v>
       </c>
       <c r="BJ22" s="1">
         <v>9.191948</v>
       </c>
       <c r="BK22" s="1">
-        <v>1369.470000</v>
+        <v>1369.47</v>
       </c>
       <c r="BL22" s="1">
-        <v>-358.494000</v>
+        <v>-358.49400000000003</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>33101.219513</v>
+        <v>33101.219512999996</v>
       </c>
       <c r="BO22" s="1">
-        <v>9.194783</v>
+        <v>9.1947829999999993</v>
       </c>
       <c r="BP22" s="1">
-        <v>1482.870000</v>
+        <v>1482.87</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-583.846000</v>
+        <v>-583.846</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>33111.790753</v>
+        <v>33111.790753000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>9.197720</v>
+        <v>9.1977200000000003</v>
       </c>
       <c r="BU22" s="1">
-        <v>1613.920000</v>
+        <v>1613.92</v>
       </c>
       <c r="BV22" s="1">
-        <v>-839.606000</v>
+        <v>-839.60599999999999</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>33122.815832</v>
       </c>
       <c r="BY22" s="1">
-        <v>9.200782</v>
+        <v>9.2007820000000002</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1766.320000</v>
+        <v>1766.32</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1117.710000</v>
+        <v>-1117.71</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>33135.789186</v>
+        <v>33135.789186000002</v>
       </c>
       <c r="CD22" s="1">
-        <v>9.204386</v>
+        <v>9.2043859999999995</v>
       </c>
       <c r="CE22" s="1">
-        <v>2187.310000</v>
+        <v>2187.31</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1794.450000</v>
+        <v>-1794.45</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>32962.994435</v>
+        <v>32962.994435000001</v>
       </c>
       <c r="B23" s="1">
-        <v>9.156387</v>
+        <v>9.1563870000000005</v>
       </c>
       <c r="C23" s="1">
-        <v>1144.090000</v>
+        <v>1144.0899999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-242.138000</v>
+        <v>-242.13800000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>32973.452568</v>
+        <v>32973.452568000001</v>
       </c>
       <c r="G23" s="1">
-        <v>9.159292</v>
+        <v>9.1592920000000007</v>
       </c>
       <c r="H23" s="1">
-        <v>1165.750000</v>
+        <v>1165.75</v>
       </c>
       <c r="I23" s="1">
-        <v>-206.851000</v>
+        <v>-206.851</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>32983.903242</v>
       </c>
       <c r="L23" s="1">
-        <v>9.162195</v>
+        <v>9.1621950000000005</v>
       </c>
       <c r="M23" s="1">
-        <v>1195.590000</v>
+        <v>1195.5899999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-147.688000</v>
+        <v>-147.68799999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>32994.734411</v>
+        <v>32994.734410999998</v>
       </c>
       <c r="Q23" s="1">
-        <v>9.165204</v>
+        <v>9.1652039999999992</v>
       </c>
       <c r="R23" s="1">
-        <v>1204.770000</v>
+        <v>1204.77</v>
       </c>
       <c r="S23" s="1">
-        <v>-127.193000</v>
+        <v>-127.193</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>33005.187079</v>
+        <v>33005.187079000003</v>
       </c>
       <c r="V23" s="1">
-        <v>9.168108</v>
+        <v>9.1681080000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>1213.370000</v>
+        <v>1213.3699999999999</v>
       </c>
       <c r="X23" s="1">
-        <v>-107.304000</v>
+        <v>-107.304</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>33016.059375</v>
+        <v>33016.059374999997</v>
       </c>
       <c r="AA23" s="1">
-        <v>9.171128</v>
+        <v>9.1711279999999995</v>
       </c>
       <c r="AB23" s="1">
-        <v>1222.000000</v>
+        <v>1222</v>
       </c>
       <c r="AC23" s="1">
-        <v>-90.756400</v>
+        <v>-90.756399999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>33026.533891</v>
+        <v>33026.533890999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>9.174037</v>
+        <v>9.1740370000000002</v>
       </c>
       <c r="AG23" s="1">
-        <v>1227.120000</v>
+        <v>1227.1199999999999</v>
       </c>
       <c r="AH23" s="1">
-        <v>-86.208600</v>
+        <v>-86.208600000000004</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>33037.075861</v>
+        <v>33037.075860999998</v>
       </c>
       <c r="AK23" s="1">
-        <v>9.176966</v>
+        <v>9.1769660000000002</v>
       </c>
       <c r="AL23" s="1">
-        <v>1234.510000</v>
+        <v>1234.51</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.530400</v>
+        <v>-89.5304</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>33048.250761</v>
+        <v>33048.250761000003</v>
       </c>
       <c r="AP23" s="1">
-        <v>9.180070</v>
+        <v>9.1800700000000006</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1242.500000</v>
+        <v>1242.5</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.446000</v>
+        <v>-101.446</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>33059.040236</v>
+        <v>33059.040236000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>9.183067</v>
+        <v>9.1830669999999994</v>
       </c>
       <c r="AV23" s="1">
-        <v>1252.460000</v>
+        <v>1252.46</v>
       </c>
       <c r="AW23" s="1">
-        <v>-120.779000</v>
+        <v>-120.779</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>33069.736210</v>
+        <v>33069.736210000003</v>
       </c>
       <c r="AZ23" s="1">
-        <v>9.186038</v>
+        <v>9.1860379999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1260.810000</v>
+        <v>1260.81</v>
       </c>
       <c r="BB23" s="1">
-        <v>-138.300000</v>
+        <v>-138.30000000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>33080.803658</v>
+        <v>33080.803657999997</v>
       </c>
       <c r="BE23" s="1">
-        <v>9.189112</v>
+        <v>9.1891119999999997</v>
       </c>
       <c r="BF23" s="1">
-        <v>1300.510000</v>
+        <v>1300.51</v>
       </c>
       <c r="BG23" s="1">
-        <v>-220.713000</v>
+        <v>-220.71299999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>33091.387788</v>
       </c>
       <c r="BJ23" s="1">
-        <v>9.192052</v>
+        <v>9.1920520000000003</v>
       </c>
       <c r="BK23" s="1">
-        <v>1369.420000</v>
+        <v>1369.42</v>
       </c>
       <c r="BL23" s="1">
-        <v>-358.452000</v>
+        <v>-358.452</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>33101.615797</v>
+        <v>33101.615796999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>9.194893</v>
+        <v>9.1948930000000004</v>
       </c>
       <c r="BP23" s="1">
-        <v>1482.860000</v>
+        <v>1482.86</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-583.795000</v>
+        <v>-583.79499999999996</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>33112.219760</v>
+        <v>33112.21976</v>
       </c>
       <c r="BT23" s="1">
-        <v>9.197839</v>
+        <v>9.1978390000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1613.890000</v>
+        <v>1613.89</v>
       </c>
       <c r="BV23" s="1">
-        <v>-839.519000</v>
+        <v>-839.51900000000001</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>33123.236441</v>
+        <v>33123.236441000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>9.200899</v>
+        <v>9.2008989999999997</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1766.460000</v>
+        <v>1766.46</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1117.680000</v>
+        <v>-1117.68</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>33136.310977</v>
+        <v>33136.310977000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>9.204531</v>
+        <v>9.2045309999999994</v>
       </c>
       <c r="CE23" s="1">
-        <v>2185.670000</v>
+        <v>2185.67</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1797.010000</v>
+        <v>-1797.01</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>32963.334645</v>
+        <v>32963.334645000003</v>
       </c>
       <c r="B24" s="1">
-        <v>9.156482</v>
+        <v>9.1564820000000005</v>
       </c>
       <c r="C24" s="1">
-        <v>1144.050000</v>
+        <v>1144.05</v>
       </c>
       <c r="D24" s="1">
-        <v>-242.056000</v>
+        <v>-242.05600000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>32973.797269</v>
+        <v>32973.797269000002</v>
       </c>
       <c r="G24" s="1">
-        <v>9.159388</v>
+        <v>9.1593879999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1165.240000</v>
+        <v>1165.24</v>
       </c>
       <c r="I24" s="1">
-        <v>-206.876000</v>
+        <v>-206.876</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>32984.591689</v>
+        <v>32984.591689000001</v>
       </c>
       <c r="L24" s="1">
-        <v>9.162387</v>
+        <v>9.1623870000000007</v>
       </c>
       <c r="M24" s="1">
-        <v>1195.650000</v>
+        <v>1195.6500000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-147.820000</v>
+        <v>-147.82</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>32995.084585</v>
+        <v>32995.084584999997</v>
       </c>
       <c r="Q24" s="1">
-        <v>9.165301</v>
+        <v>9.1653009999999995</v>
       </c>
       <c r="R24" s="1">
-        <v>1204.730000</v>
+        <v>1204.73</v>
       </c>
       <c r="S24" s="1">
-        <v>-127.210000</v>
+        <v>-127.21</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>33005.530797</v>
+        <v>33005.530796999999</v>
       </c>
       <c r="V24" s="1">
-        <v>9.168203</v>
+        <v>9.1682030000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1213.390000</v>
+        <v>1213.3900000000001</v>
       </c>
       <c r="X24" s="1">
-        <v>-107.210000</v>
+        <v>-107.21</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>33016.408065</v>
+        <v>33016.408065000003</v>
       </c>
       <c r="AA24" s="1">
-        <v>9.171224</v>
+        <v>9.1712240000000005</v>
       </c>
       <c r="AB24" s="1">
-        <v>1222.110000</v>
+        <v>1222.1099999999999</v>
       </c>
       <c r="AC24" s="1">
-        <v>-90.714600</v>
+        <v>-90.714600000000004</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>33027.178689</v>
       </c>
       <c r="AF24" s="1">
-        <v>9.174216</v>
+        <v>9.1742159999999995</v>
       </c>
       <c r="AG24" s="1">
-        <v>1227.140000</v>
+        <v>1227.1400000000001</v>
       </c>
       <c r="AH24" s="1">
-        <v>-86.192400</v>
+        <v>-86.192400000000006</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>33037.739517</v>
+        <v>33037.739517000002</v>
       </c>
       <c r="AK24" s="1">
-        <v>9.177150</v>
+        <v>9.1771499999999993</v>
       </c>
       <c r="AL24" s="1">
-        <v>1234.540000</v>
+        <v>1234.54</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.532700</v>
+        <v>-89.532700000000006</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>33048.664390</v>
+        <v>33048.664389999998</v>
       </c>
       <c r="AP24" s="1">
-        <v>9.180185</v>
+        <v>9.1801849999999998</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1242.500000</v>
+        <v>1242.5</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.445000</v>
+        <v>-101.44499999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>33059.492550</v>
+        <v>33059.492550000003</v>
       </c>
       <c r="AU24" s="1">
         <v>9.183192</v>
       </c>
       <c r="AV24" s="1">
-        <v>1252.430000</v>
+        <v>1252.43</v>
       </c>
       <c r="AW24" s="1">
-        <v>-120.815000</v>
+        <v>-120.815</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>33070.118344</v>
+        <v>33070.118344000002</v>
       </c>
       <c r="AZ24" s="1">
-        <v>9.186144</v>
+        <v>9.1861440000000005</v>
       </c>
       <c r="BA24" s="1">
-        <v>1260.800000</v>
+        <v>1260.8</v>
       </c>
       <c r="BB24" s="1">
-        <v>-138.275000</v>
+        <v>-138.27500000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>33081.165737</v>
+        <v>33081.165737000003</v>
       </c>
       <c r="BE24" s="1">
-        <v>9.189213</v>
+        <v>9.1892130000000005</v>
       </c>
       <c r="BF24" s="1">
-        <v>1300.520000</v>
+        <v>1300.52</v>
       </c>
       <c r="BG24" s="1">
-        <v>-220.669000</v>
+        <v>-220.66900000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>33091.763755</v>
       </c>
       <c r="BJ24" s="1">
-        <v>9.192157</v>
+        <v>9.1921569999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1369.430000</v>
+        <v>1369.43</v>
       </c>
       <c r="BL24" s="1">
-        <v>-358.472000</v>
+        <v>-358.47199999999998</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>33102.034910</v>
+        <v>33102.034910000002</v>
       </c>
       <c r="BO24" s="1">
-        <v>9.195010</v>
+        <v>9.1950099999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1482.880000</v>
+        <v>1482.88</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-583.787000</v>
+        <v>-583.78700000000003</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>33112.637393</v>
+        <v>33112.637392999997</v>
       </c>
       <c r="BT24" s="1">
-        <v>9.197955</v>
+        <v>9.1979550000000003</v>
       </c>
       <c r="BU24" s="1">
-        <v>1613.820000</v>
+        <v>1613.82</v>
       </c>
       <c r="BV24" s="1">
-        <v>-839.614000</v>
+        <v>-839.61400000000003</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>33123.679329</v>
+        <v>33123.679328999999</v>
       </c>
       <c r="BY24" s="1">
         <v>9.201022</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1766.360000</v>
+        <v>1766.36</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1117.690000</v>
+        <v>-1117.69</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>33136.846748</v>
+        <v>33136.846748000004</v>
       </c>
       <c r="CD24" s="1">
-        <v>9.204680</v>
+        <v>9.2046799999999998</v>
       </c>
       <c r="CE24" s="1">
-        <v>2187.760000</v>
+        <v>2187.7600000000002</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1795.500000</v>
+        <v>-1795.5</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>32964.016645</v>
+        <v>32964.016645000003</v>
       </c>
       <c r="B25" s="1">
-        <v>9.156671</v>
+        <v>9.1566709999999993</v>
       </c>
       <c r="C25" s="1">
-        <v>1144.160000</v>
+        <v>1144.1600000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>-242.310000</v>
+        <v>-242.31</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>32974.486230</v>
+        <v>32974.486230000002</v>
       </c>
       <c r="G25" s="1">
-        <v>9.159580</v>
+        <v>9.1595800000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>1165.270000</v>
+        <v>1165.27</v>
       </c>
       <c r="I25" s="1">
-        <v>-206.419000</v>
+        <v>-206.41900000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>32984.940904</v>
+        <v>32984.940904000003</v>
       </c>
       <c r="L25" s="1">
-        <v>9.162484</v>
+        <v>9.1624839999999992</v>
       </c>
       <c r="M25" s="1">
-        <v>1195.670000</v>
+        <v>1195.67</v>
       </c>
       <c r="N25" s="1">
-        <v>-148.100000</v>
+        <v>-148.1</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>32995.433739</v>
       </c>
       <c r="Q25" s="1">
-        <v>9.165398</v>
+        <v>9.1653979999999997</v>
       </c>
       <c r="R25" s="1">
-        <v>1204.770000</v>
+        <v>1204.77</v>
       </c>
       <c r="S25" s="1">
-        <v>-127.160000</v>
+        <v>-127.16</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>33005.872573</v>
+        <v>33005.872573000001</v>
       </c>
       <c r="V25" s="1">
-        <v>9.168298</v>
+        <v>9.1682980000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>1213.370000</v>
+        <v>1213.3699999999999</v>
       </c>
       <c r="X25" s="1">
-        <v>-107.258000</v>
+        <v>-107.258</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>33017.069257</v>
+        <v>33017.069257000003</v>
       </c>
       <c r="AA25" s="1">
-        <v>9.171408</v>
+        <v>9.1714079999999996</v>
       </c>
       <c r="AB25" s="1">
-        <v>1222.150000</v>
+        <v>1222.1500000000001</v>
       </c>
       <c r="AC25" s="1">
-        <v>-90.600600</v>
+        <v>-90.6006</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>33027.561105</v>
+        <v>33027.561105000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>9.174323</v>
+        <v>9.1743229999999993</v>
       </c>
       <c r="AG25" s="1">
-        <v>1227.120000</v>
+        <v>1227.1199999999999</v>
       </c>
       <c r="AH25" s="1">
-        <v>-86.229700</v>
+        <v>-86.229699999999994</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>33038.124898</v>
+        <v>33038.124898000002</v>
       </c>
       <c r="AK25" s="1">
-        <v>9.177257</v>
+        <v>9.1772570000000009</v>
       </c>
       <c r="AL25" s="1">
-        <v>1234.520000</v>
+        <v>1234.52</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.556800</v>
+        <v>-89.556799999999996</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>33049.045813</v>
+        <v>33049.045812999997</v>
       </c>
       <c r="AP25" s="1">
-        <v>9.180291</v>
+        <v>9.1802910000000004</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1242.520000</v>
+        <v>1242.52</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.466000</v>
+        <v>-101.46599999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>33059.858630</v>
+        <v>33059.858630000002</v>
       </c>
       <c r="AU25" s="1">
-        <v>9.183294</v>
+        <v>9.1832940000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1252.450000</v>
+        <v>1252.45</v>
       </c>
       <c r="AW25" s="1">
-        <v>-120.791000</v>
+        <v>-120.791</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>33070.479928</v>
+        <v>33070.479928000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>9.186244</v>
+        <v>9.1862440000000003</v>
       </c>
       <c r="BA25" s="1">
-        <v>1260.790000</v>
+        <v>1260.79</v>
       </c>
       <c r="BB25" s="1">
-        <v>-138.326000</v>
+        <v>-138.32599999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>33081.584971</v>
+        <v>33081.584970999997</v>
       </c>
       <c r="BE25" s="1">
-        <v>9.189329</v>
+        <v>9.1893290000000007</v>
       </c>
       <c r="BF25" s="1">
-        <v>1300.490000</v>
+        <v>1300.49</v>
       </c>
       <c r="BG25" s="1">
-        <v>-220.683000</v>
+        <v>-220.68299999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>33092.206683</v>
+        <v>33092.206682999997</v>
       </c>
       <c r="BJ25" s="1">
-        <v>9.192280</v>
+        <v>9.1922800000000002</v>
       </c>
       <c r="BK25" s="1">
-        <v>1369.400000</v>
+        <v>1369.4</v>
       </c>
       <c r="BL25" s="1">
-        <v>-358.457000</v>
+        <v>-358.45699999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>33102.430717</v>
+        <v>33102.430717000003</v>
       </c>
       <c r="BO25" s="1">
-        <v>9.195120</v>
+        <v>9.1951199999999993</v>
       </c>
       <c r="BP25" s="1">
-        <v>1482.930000</v>
+        <v>1482.93</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-583.817000</v>
+        <v>-583.81700000000001</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>33113.065504</v>
+        <v>33113.065503999998</v>
       </c>
       <c r="BT25" s="1">
-        <v>9.198074</v>
+        <v>9.1980740000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1613.820000</v>
+        <v>1613.82</v>
       </c>
       <c r="BV25" s="1">
-        <v>-839.410000</v>
+        <v>-839.41</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>33124.099966</v>
+        <v>33124.099966000002</v>
       </c>
       <c r="BY25" s="1">
-        <v>9.201139</v>
+        <v>9.2011389999999995</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1766.340000</v>
+        <v>1766.34</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1117.580000</v>
+        <v>-1117.58</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>33137.387761</v>
+        <v>33137.387760999998</v>
       </c>
       <c r="CD25" s="1">
-        <v>9.204830</v>
+        <v>9.2048299999999994</v>
       </c>
       <c r="CE25" s="1">
-        <v>2185.110000</v>
+        <v>2185.11</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1795.990000</v>
+        <v>-1795.99</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>32964.362229</v>
+        <v>32964.362228999998</v>
       </c>
       <c r="B26" s="1">
-        <v>9.156767</v>
+        <v>9.1567670000000003</v>
       </c>
       <c r="C26" s="1">
-        <v>1144.220000</v>
+        <v>1144.22</v>
       </c>
       <c r="D26" s="1">
-        <v>-242.096000</v>
+        <v>-242.096</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>32974.834425</v>
+        <v>32974.834425000001</v>
       </c>
       <c r="G26" s="1">
-        <v>9.159676</v>
+        <v>9.1596759999999993</v>
       </c>
       <c r="H26" s="1">
-        <v>1166.130000</v>
+        <v>1166.1300000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-206.442000</v>
+        <v>-206.44200000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>32985.285594</v>
+        <v>32985.285594000001</v>
       </c>
       <c r="L26" s="1">
-        <v>9.162579</v>
+        <v>9.1625789999999991</v>
       </c>
       <c r="M26" s="1">
-        <v>1195.490000</v>
+        <v>1195.49</v>
       </c>
       <c r="N26" s="1">
-        <v>-147.784000</v>
+        <v>-147.78399999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>32996.094411</v>
+        <v>32996.094410999998</v>
       </c>
       <c r="Q26" s="1">
-        <v>9.165582</v>
+        <v>9.1655820000000006</v>
       </c>
       <c r="R26" s="1">
-        <v>1204.800000</v>
+        <v>1204.8</v>
       </c>
       <c r="S26" s="1">
-        <v>-127.132000</v>
+        <v>-127.13200000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>33006.525178</v>
+        <v>33006.525178000004</v>
       </c>
       <c r="V26" s="1">
-        <v>9.168479</v>
+        <v>9.1684789999999996</v>
       </c>
       <c r="W26" s="1">
-        <v>1213.290000</v>
+        <v>1213.29</v>
       </c>
       <c r="X26" s="1">
-        <v>-107.323000</v>
+        <v>-107.32299999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>33017.454621</v>
+        <v>33017.454620999997</v>
       </c>
       <c r="AA26" s="1">
-        <v>9.171515</v>
+        <v>9.1715149999999994</v>
       </c>
       <c r="AB26" s="1">
-        <v>1222.140000</v>
+        <v>1222.1400000000001</v>
       </c>
       <c r="AC26" s="1">
-        <v>-90.821600</v>
+        <v>-90.821600000000004</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>33027.904869</v>
+        <v>33027.904868999998</v>
       </c>
       <c r="AF26" s="1">
-        <v>9.174418</v>
+        <v>9.1744179999999993</v>
       </c>
       <c r="AG26" s="1">
-        <v>1227.160000</v>
+        <v>1227.1600000000001</v>
       </c>
       <c r="AH26" s="1">
-        <v>-86.271700</v>
+        <v>-86.271699999999996</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>33038.473090</v>
+        <v>33038.47309</v>
       </c>
       <c r="AK26" s="1">
-        <v>9.177354</v>
+        <v>9.1773539999999993</v>
       </c>
       <c r="AL26" s="1">
-        <v>1234.510000</v>
+        <v>1234.51</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.558500</v>
+        <v>-89.558499999999995</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>33049.406405</v>
+        <v>33049.406405000002</v>
       </c>
       <c r="AP26" s="1">
-        <v>9.180391</v>
+        <v>9.1803910000000002</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1242.510000</v>
+        <v>1242.51</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.474000</v>
+        <v>-101.474</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>33060.283174</v>
+        <v>33060.283173999997</v>
       </c>
       <c r="AU26" s="1">
-        <v>9.183412</v>
+        <v>9.1834120000000006</v>
       </c>
       <c r="AV26" s="1">
-        <v>1252.430000</v>
+        <v>1252.43</v>
       </c>
       <c r="AW26" s="1">
-        <v>-120.791000</v>
+        <v>-120.791</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>33070.895112</v>
+        <v>33070.895111999998</v>
       </c>
       <c r="AZ26" s="1">
-        <v>9.186360</v>
+        <v>9.1863600000000005</v>
       </c>
       <c r="BA26" s="1">
-        <v>1260.850000</v>
+        <v>1260.8499999999999</v>
       </c>
       <c r="BB26" s="1">
-        <v>-138.306000</v>
+        <v>-138.30600000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>33081.891386</v>
+        <v>33081.891386000003</v>
       </c>
       <c r="BE26" s="1">
-        <v>9.189414</v>
+        <v>9.1894139999999993</v>
       </c>
       <c r="BF26" s="1">
-        <v>1300.510000</v>
+        <v>1300.51</v>
       </c>
       <c r="BG26" s="1">
-        <v>-220.692000</v>
+        <v>-220.69200000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>33092.535531</v>
+        <v>33092.535531000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>9.192371</v>
+        <v>9.1923709999999996</v>
       </c>
       <c r="BK26" s="1">
-        <v>1369.420000</v>
+        <v>1369.42</v>
       </c>
       <c r="BL26" s="1">
-        <v>-358.440000</v>
+        <v>-358.44</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>33102.855327</v>
+        <v>33102.855326999997</v>
       </c>
       <c r="BO26" s="1">
-        <v>9.195238</v>
+        <v>9.1952379999999998</v>
       </c>
       <c r="BP26" s="1">
-        <v>1482.960000</v>
+        <v>1482.96</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-583.801000</v>
+        <v>-583.80100000000004</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>33113.476623</v>
+        <v>33113.476623000002</v>
       </c>
       <c r="BT26" s="1">
         <v>9.198188</v>
       </c>
       <c r="BU26" s="1">
-        <v>1613.840000</v>
+        <v>1613.84</v>
       </c>
       <c r="BV26" s="1">
-        <v>-839.344000</v>
+        <v>-839.34400000000005</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>33124.525008</v>
+        <v>33124.525007999997</v>
       </c>
       <c r="BY26" s="1">
         <v>9.201257</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1766.370000</v>
+        <v>1766.37</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1117.630000</v>
+        <v>-1117.6300000000001</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>33137.930123</v>
+        <v>33137.930122999998</v>
       </c>
       <c r="CD26" s="1">
-        <v>9.204981</v>
+        <v>9.2049810000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>2187.140000</v>
+        <v>2187.14</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1796.450000</v>
+        <v>-1796.45</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>